--- a/Code/Results/Cases/Case_4_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,8 +447,11 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -482,8 +488,11 @@
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -520,8 +529,11 @@
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -558,8 +570,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -596,8 +611,11 @@
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -634,8 +652,11 @@
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -672,8 +693,11 @@
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -710,8 +734,11 @@
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -748,8 +775,11 @@
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -786,8 +816,11 @@
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -824,8 +857,11 @@
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -862,8 +898,11 @@
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -900,8 +939,11 @@
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -938,8 +980,11 @@
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -976,8 +1021,11 @@
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1014,8 +1062,11 @@
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1052,8 +1103,11 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1090,8 +1144,11 @@
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1128,8 +1185,11 @@
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1166,8 +1226,11 @@
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1204,8 +1267,11 @@
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1242,8 +1308,11 @@
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1280,8 +1349,11 @@
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1316,6 +1388,9 @@
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>10.24390703378435</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>3.568034178378639</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.2257269863392395</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.589123773785417</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007076306686455231</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -450,28 +456,34 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>3.654868487983038</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>8.632016333591309</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2.994978764379255</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1903423765336498</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1.322748012390548</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007298458384945609</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -491,28 +503,34 @@
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>3.31229074912946</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>7.699937582559926</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2.664335755441357</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.1698383709036904</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1.170621733784074</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007433181311968795</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -532,28 +550,34 @@
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>3.113798719697485</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>7.331515368230271</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.533772668664255</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.1617253115063022</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1.110844242561328</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007487936645778993</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -573,28 +597,34 @@
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>3.035293162397323</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>7.270951710980171</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2.512316404613046</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1603911778655629</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1.101035944874397</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007497026802141826</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -614,28 +644,34 @@
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>3.022386296295764</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>7.694926261883211</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2.662559350883555</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1697280481383387</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1.169807330721653</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007433920032283877</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -655,28 +691,34 @@
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>3.11273101373655</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>9.674045506592279</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>3.365243321576315</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.2132281817124948</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1.494446885515558</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007153443688142965</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -696,28 +738,34 @@
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>3.533877671012164</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>14.2128975423019</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>4.987307140669827</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.3124183360349377</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2.266111547684048</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0006572038195923224</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -737,28 +785,34 @@
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>4.492294616222409</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>18.42379998142246</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>6.508889876152125</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.4035718226692637</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>3.026068609868148</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006082632373780629</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -778,28 +832,34 @@
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>5.367259080227996</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>20.771938142414</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>7.365972738237701</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.4539324771924527</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>3.474109995596166</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0005824261520205069</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -819,28 +879,34 @@
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>5.847583883181017</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>21.7726688100197</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>7.733393247921299</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>0.4752706556511868</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>3.671522666211317</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0005716713351215756</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -860,28 +926,34 @@
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>6.050413278361361</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>21.5507411786142</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>7.651794494617207</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.4705455972198394</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>3.627378579822903</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0005740441912199338</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -901,28 +973,34 @@
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>6.005534328261604</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>20.85154636275036</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>7.3951518813044</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.4556328472534688</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>3.489662639917185</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0005815653400720322</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -942,28 +1020,34 @@
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>5.863761627045562</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>20.44017374677321</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>7.244458950106832</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.4468410260792695</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>3.409566037996342</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0005860236903762543</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -983,28 +1067,34 @@
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>5.780086005567966</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>18.28223714453964</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>6.457430266247684</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.4005238362893522</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>2.999673116149012</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0006098504089756329</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1024,28 +1114,34 @@
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>5.338115308036322</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>17.09180995101246</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>6.02558625357392</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.3748443349410877</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.780213522177803</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0006233438358340671</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1065,28 +1161,34 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>5.09225337188127</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>16.44366437646272</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>5.791106857146588</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.3608281250183012</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>2.662513298389314</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0006308070827055878</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1106,28 +1208,34 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>4.957819864012606</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>16.22963111221486</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>5.713772215590097</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.3561945398604394</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2.623908374813652</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0006332907742723499</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1147,28 +1255,34 @@
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>4.91334175034217</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>17.21452953385722</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>6.070032633104006</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>0.3774954819659655</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2.802636830433073</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006219402838439284</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1188,28 +1302,34 @@
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>5.117662570447806</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>21.05321201161598</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>7.469106785181225</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>0.4599380614175459</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>3.529175739030364</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0005793888558582896</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1229,28 +1349,34 @@
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>5.904710901335534</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>24.30145371048025</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>8.668256615691348</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.5287961694014029</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>4.190933030866034</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0005450827768928389</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1270,28 +1396,34 @@
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>6.557467625341076</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>22.46185774481796</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>7.98723677144767</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.4899173631881553</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>3.810005638319069</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0005643449537955325</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1311,28 +1443,34 @@
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>6.189404214281353</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>17.15893789177028</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>6.049896537632776</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>0.3762946268878409</v>
       </c>
       <c r="E24">
-        <v>0</v>
+        <v>2.792473587420858</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.000622575720719121</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1352,28 +1490,34 @@
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>5.106154046198526</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>12.87926949215034</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>4.508974175061496</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>0.2833633657893415</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2.034934921028963</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0006735874673205755</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1391,6 +1535,12 @@
         <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>4.212081276363676</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_58/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.24390703378435</v>
+        <v>0.7313309544802848</v>
       </c>
       <c r="C2">
-        <v>3.568034178378639</v>
+        <v>0.2134047736190325</v>
       </c>
       <c r="D2">
-        <v>0.2257269863392395</v>
+        <v>0.1956034694858886</v>
       </c>
       <c r="E2">
-        <v>1.589123773785417</v>
+        <v>0.3227215922223081</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007076306686455231</v>
+        <v>1.607176098307491</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.9723681734681122</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.003907433533776</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.9311493281464323</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.6017022686950142</v>
       </c>
       <c r="N2">
-        <v>3.654868487983038</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.632016333591309</v>
+        <v>0.6323592675971099</v>
       </c>
       <c r="C3">
-        <v>2.994978764379255</v>
+        <v>0.1839648800450959</v>
       </c>
       <c r="D3">
-        <v>0.1903423765336498</v>
+        <v>0.1692488702908861</v>
       </c>
       <c r="E3">
-        <v>1.322748012390548</v>
+        <v>0.2798754810590935</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007298458384945609</v>
+        <v>1.475507987779309</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.9176139256574629</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.9430968296979643</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.8044625892262331</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.5192105120401322</v>
       </c>
       <c r="N3">
-        <v>3.31229074912946</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.699937582559926</v>
+        <v>0.5721135480372368</v>
       </c>
       <c r="C4">
-        <v>2.664335755441357</v>
+        <v>0.1661219163293595</v>
       </c>
       <c r="D4">
-        <v>0.1698383709036904</v>
+        <v>0.1532845951373503</v>
       </c>
       <c r="E4">
-        <v>1.170621733784074</v>
+        <v>0.2540981397201421</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007433181311968795</v>
+        <v>1.397132788313399</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.8853409364958225</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.9071719998430936</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.727436234261603</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.4693222318530204</v>
       </c>
       <c r="N4">
-        <v>3.113798719697485</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.331515368230271</v>
+        <v>0.5476725787279406</v>
       </c>
       <c r="C5">
-        <v>2.533772668664255</v>
+        <v>0.1589003984306174</v>
       </c>
       <c r="D5">
-        <v>0.1617253115063022</v>
+        <v>0.1468266600081591</v>
       </c>
       <c r="E5">
-        <v>1.110844242561328</v>
+        <v>0.2437104183295062</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007487936645778993</v>
+        <v>1.365760436126493</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.8725027264845977</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.8928597262385978</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.6962075199197528</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.4491579684600779</v>
       </c>
       <c r="N5">
-        <v>3.035293162397323</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.270951710980171</v>
+        <v>0.5436201853349303</v>
       </c>
       <c r="C6">
-        <v>2.512316404613046</v>
+        <v>0.1577040176809987</v>
       </c>
       <c r="D6">
-        <v>0.1603911778655629</v>
+        <v>0.1457570043138787</v>
       </c>
       <c r="E6">
-        <v>1.101035944874397</v>
+        <v>0.2419921348685179</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007497026802141826</v>
+        <v>1.360583746148677</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.8703891687057137</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.8905021764746976</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.691030826821688</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.4458189868273195</v>
       </c>
       <c r="N6">
-        <v>3.022386296295764</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.694926261883211</v>
+        <v>0.571783512467448</v>
       </c>
       <c r="C7">
-        <v>2.662559350883555</v>
+        <v>0.1660243348795092</v>
       </c>
       <c r="D7">
-        <v>0.1697280481383387</v>
+        <v>0.1531973172833716</v>
       </c>
       <c r="E7">
-        <v>1.169807330721653</v>
+        <v>0.253957595585284</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007433920032283877</v>
+        <v>1.396707467045729</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.885166559481803</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.9069776894908372</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.7270144636985378</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.4690496519446725</v>
       </c>
       <c r="N7">
-        <v>3.11273101373655</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>9.674045506592279</v>
+        <v>0.6970831783020515</v>
       </c>
       <c r="C8">
-        <v>3.365243321576315</v>
+        <v>0.2031998383409643</v>
       </c>
       <c r="D8">
-        <v>0.2132281817124948</v>
+        <v>0.1864668355941888</v>
       </c>
       <c r="E8">
-        <v>1.494446885515558</v>
+        <v>0.3078277755870786</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007153443688142965</v>
+        <v>1.561230136330664</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.9531936981135516</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.9826291846224464</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.8872906928405371</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.5730846825211273</v>
       </c>
       <c r="N8">
-        <v>3.533877671012164</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.2128975423019</v>
+        <v>0.9480337436793604</v>
       </c>
       <c r="C9">
-        <v>4.987307140669827</v>
+        <v>0.2783986115861694</v>
       </c>
       <c r="D9">
-        <v>0.3124183360349377</v>
+        <v>0.2537823847041949</v>
       </c>
       <c r="E9">
-        <v>2.266111547684048</v>
+        <v>0.418498342693411</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0006572038195923224</v>
+        <v>1.906150843756876</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.098520322513224</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.143568443633882</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1.209151249601632</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.7844305424291278</v>
       </c>
       <c r="N9">
-        <v>4.492294616222409</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.42379998142246</v>
+        <v>1.137272115452618</v>
       </c>
       <c r="C10">
-        <v>6.508889876152125</v>
+        <v>0.3357377742437109</v>
       </c>
       <c r="D10">
-        <v>0.4035718226692637</v>
+        <v>0.3050358636185422</v>
       </c>
       <c r="E10">
-        <v>3.026068609868148</v>
+        <v>0.5041475658442849</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0006082632373780629</v>
+        <v>2.177286519942612</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.214466645953195</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.271587154287644</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.452587452273974</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.9461627380823359</v>
       </c>
       <c r="N10">
-        <v>5.367259080227996</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.771938142414</v>
+        <v>1.224835953908951</v>
       </c>
       <c r="C11">
-        <v>7.365972738237701</v>
+        <v>0.362450731947348</v>
       </c>
       <c r="D11">
-        <v>0.4539324771924527</v>
+        <v>0.3288749421408568</v>
       </c>
       <c r="E11">
-        <v>3.474109995596166</v>
+        <v>0.5443760318528064</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0005824261520205069</v>
+        <v>2.305514968602125</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.269682457571776</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.332474612346644</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.565436034513795</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.021641226541099</v>
       </c>
       <c r="N11">
-        <v>5.847583883181017</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.7726688100197</v>
+        <v>1.258245538807586</v>
       </c>
       <c r="C12">
-        <v>7.733393247921299</v>
+        <v>0.3726730420254114</v>
       </c>
       <c r="D12">
-        <v>0.4752706556511868</v>
+        <v>0.3379897529465978</v>
       </c>
       <c r="E12">
-        <v>3.671522666211317</v>
+        <v>0.5598220343649274</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0005716713351215756</v>
+        <v>2.35487120915019</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.290991207766496</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.355961457494885</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.608527104165262</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.050544026727245</v>
       </c>
       <c r="N12">
-        <v>6.050413278361361</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.5507411786142</v>
+        <v>1.251038363440188</v>
       </c>
       <c r="C13">
-        <v>7.651794494617207</v>
+        <v>0.3704664609435326</v>
       </c>
       <c r="D13">
-        <v>0.4705455972198394</v>
+        <v>0.3360226175050371</v>
       </c>
       <c r="E13">
-        <v>3.627378579822903</v>
+        <v>0.5564854960591816</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0005740441912199338</v>
+        <v>2.344204284377923</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.286383450715505</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.350883181664415</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.599229825595842</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.044304225508611</v>
       </c>
       <c r="N13">
-        <v>6.005534328261604</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.85154636275036</v>
+        <v>1.227579313684146</v>
       </c>
       <c r="C14">
-        <v>7.3951518813044</v>
+        <v>0.3632894896440746</v>
       </c>
       <c r="D14">
-        <v>0.4556328472534688</v>
+        <v>0.3296229957947361</v>
       </c>
       <c r="E14">
-        <v>3.489662639917185</v>
+        <v>0.5456423416259071</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0005815653400720322</v>
+        <v>2.309558936836595</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.271427258809041</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.33439797079744</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.568973658451512</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.024012362686776</v>
       </c>
       <c r="N14">
-        <v>5.863761627045562</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.44017374677321</v>
+        <v>1.213243876583505</v>
       </c>
       <c r="C15">
-        <v>7.244458950106832</v>
+        <v>0.3589077954597428</v>
       </c>
       <c r="D15">
-        <v>0.4468410260792695</v>
+        <v>0.325714816883746</v>
       </c>
       <c r="E15">
-        <v>3.409566037996342</v>
+        <v>0.5390292109822923</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0005860236903762543</v>
+        <v>2.288444733978935</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.262319614204614</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.324357853714019</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.55048919635172</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.011626257035296</v>
       </c>
       <c r="N15">
-        <v>5.780086005567966</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.28223714453964</v>
+        <v>1.13158255690999</v>
       </c>
       <c r="C16">
-        <v>6.457430266247684</v>
+        <v>0.3340060244647418</v>
       </c>
       <c r="D16">
-        <v>0.4005238362893522</v>
+        <v>0.3034894723760715</v>
       </c>
       <c r="E16">
-        <v>2.999673116149012</v>
+        <v>0.5015465287149397</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0006098504089756329</v>
+        <v>2.169012818069689</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.210911574142671</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.267665421060144</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.445259488333448</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.9412722615328306</v>
       </c>
       <c r="N16">
-        <v>5.338115308036322</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.09180995101246</v>
+        <v>1.081890731355116</v>
       </c>
       <c r="C17">
-        <v>6.02558625357392</v>
+        <v>0.3189017018555376</v>
       </c>
       <c r="D17">
-        <v>0.3748443349410877</v>
+        <v>0.2899973262780406</v>
       </c>
       <c r="E17">
-        <v>2.780213522177803</v>
+        <v>0.4788968791989845</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0006233438358340671</v>
+        <v>2.0970621842078</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.180037436301632</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.233598611736795</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.381281459595698</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.8986320605713374</v>
       </c>
       <c r="N17">
-        <v>5.09225337188127</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.44366437646272</v>
+        <v>1.053445923769317</v>
       </c>
       <c r="C18">
-        <v>5.791106857146588</v>
+        <v>0.3102722334922134</v>
       </c>
       <c r="D18">
-        <v>0.3608281250183012</v>
+        <v>0.2822854862265842</v>
       </c>
       <c r="E18">
-        <v>2.662513298389314</v>
+        <v>0.4659865725085268</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0006308070827055878</v>
+        <v>2.056131782834456</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.162509131167781</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.21425060104356</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.34467782616295</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.8742828289538593</v>
       </c>
       <c r="N18">
-        <v>4.957819864012606</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.22963111221486</v>
+        <v>1.043837358156736</v>
       </c>
       <c r="C19">
-        <v>5.713772215590097</v>
+        <v>0.307359963914223</v>
       </c>
       <c r="D19">
-        <v>0.3561945398604394</v>
+        <v>0.2796823663963579</v>
       </c>
       <c r="E19">
-        <v>2.623908374813652</v>
+        <v>0.4616346228819239</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0006332907742723499</v>
+        <v>2.04234861351074</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.156612521556411</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.20774059733445</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.332316359498662</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.8660675360315082</v>
       </c>
       <c r="N19">
-        <v>4.91334175034217</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.21452953385722</v>
+        <v>1.087166106062114</v>
       </c>
       <c r="C20">
-        <v>6.070032633104006</v>
+        <v>0.3205034538936218</v>
       </c>
       <c r="D20">
-        <v>0.3774954819659655</v>
+        <v>0.2914284859993188</v>
       </c>
       <c r="E20">
-        <v>2.802636830433073</v>
+        <v>0.4812956379664968</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0006219402838439284</v>
+        <v>2.104673832440454</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.183299963572154</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.237199251506169</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.388071488380689</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.9031526164314414</v>
       </c>
       <c r="N20">
-        <v>5.117662570447806</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.05321201161598</v>
+        <v>1.234462664172213</v>
       </c>
       <c r="C21">
-        <v>7.469106785181225</v>
+        <v>0.3653945058432839</v>
       </c>
       <c r="D21">
-        <v>0.4599380614175459</v>
+        <v>0.3315002425340623</v>
       </c>
       <c r="E21">
-        <v>3.529175739030364</v>
+        <v>0.5488212165068518</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0005793888558582896</v>
+        <v>2.319712614755616</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.275809028847846</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.33922798853115</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.577850453526509</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.029963471182704</v>
       </c>
       <c r="N21">
-        <v>5.904710901335534</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.30145371048025</v>
+        <v>1.332213814983589</v>
       </c>
       <c r="C22">
-        <v>8.668256615691348</v>
+        <v>0.3953642164314601</v>
       </c>
       <c r="D22">
-        <v>0.5287961694014029</v>
+        <v>0.3582058939030617</v>
       </c>
       <c r="E22">
-        <v>4.190933030866034</v>
+        <v>0.5942075936221443</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0005450827768928389</v>
+        <v>2.46496201274951</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.338623153064219</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.408443187970065</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.703997115002863</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.114736864631929</v>
       </c>
       <c r="N22">
-        <v>6.557467625341076</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.46185774481796</v>
+        <v>1.279892539334043</v>
       </c>
       <c r="C23">
-        <v>7.98723677144767</v>
+        <v>0.3793052354235442</v>
       </c>
       <c r="D23">
-        <v>0.4899173631881553</v>
+        <v>0.3439009651755924</v>
       </c>
       <c r="E23">
-        <v>3.810005638319069</v>
+        <v>0.5698582751251067</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0005643449537955325</v>
+        <v>2.386974214819958</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.30486670981216</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.371252345098412</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.636457078239005</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.069301432792123</v>
       </c>
       <c r="N23">
-        <v>6.189404214281353</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.15893789177028</v>
+        <v>1.084780726762062</v>
       </c>
       <c r="C24">
-        <v>6.049896537632776</v>
+        <v>0.3197791341550271</v>
       </c>
       <c r="D24">
-        <v>0.3762946268878409</v>
+        <v>0.2907813195078432</v>
       </c>
       <c r="E24">
-        <v>2.792473587420858</v>
+        <v>0.4802108147626782</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.000622575720719121</v>
+        <v>2.10123125855236</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.181824287901662</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.23557066628436</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.385001165403793</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.9011083620651874</v>
       </c>
       <c r="N24">
-        <v>5.106154046198526</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.87926949215034</v>
+        <v>0.8794211129006726</v>
       </c>
       <c r="C25">
-        <v>4.508974175061496</v>
+        <v>0.2577422936995362</v>
       </c>
       <c r="D25">
-        <v>0.2833633657893415</v>
+        <v>0.2352976623439531</v>
       </c>
       <c r="E25">
-        <v>2.034934921028963</v>
+        <v>0.3878968892348098</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0006735874673205755</v>
+        <v>1.810051078921759</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.057743178558809</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.098477382998951</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>1.121040466497249</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.7262776850778039</v>
       </c>
       <c r="N25">
-        <v>4.212081276363676</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_58/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7313309544802848</v>
+        <v>0.2707932045371706</v>
       </c>
       <c r="C2">
-        <v>0.2134047736190325</v>
+        <v>0.07041530944768226</v>
       </c>
       <c r="D2">
-        <v>0.1956034694858886</v>
+        <v>0.07796443285583621</v>
       </c>
       <c r="E2">
-        <v>0.3227215922223081</v>
+        <v>0.1450545770784402</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.607176098307491</v>
+        <v>1.415231341819094</v>
       </c>
       <c r="H2">
-        <v>0.9723681734681122</v>
+        <v>1.258408207658192</v>
       </c>
       <c r="I2">
-        <v>1.003907433533776</v>
+        <v>1.100024396642105</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9311493281464323</v>
+        <v>0.3325312292098772</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6017022686950142</v>
+        <v>0.2439005126269436</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6323592675971099</v>
+        <v>0.2449364021153713</v>
       </c>
       <c r="C3">
-        <v>0.1839648800450959</v>
+        <v>0.06252644056040424</v>
       </c>
       <c r="D3">
-        <v>0.1692488702908861</v>
+        <v>0.07079448176847336</v>
       </c>
       <c r="E3">
-        <v>0.2798754810590935</v>
+        <v>0.1339653914798689</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.475507987779309</v>
+        <v>1.382884738630935</v>
       </c>
       <c r="H3">
-        <v>0.9176139256574629</v>
+        <v>1.247665512840967</v>
       </c>
       <c r="I3">
-        <v>0.9430968296979643</v>
+        <v>1.086065402385685</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8044625892262331</v>
+        <v>0.2991984774104708</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5192105120401322</v>
+        <v>0.2224837851026891</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5721135480372368</v>
+        <v>0.229201767033004</v>
       </c>
       <c r="C4">
-        <v>0.1661219163293595</v>
+        <v>0.05770978266350824</v>
       </c>
       <c r="D4">
-        <v>0.1532845951373503</v>
+        <v>0.06642964103181725</v>
       </c>
       <c r="E4">
-        <v>0.2540981397201421</v>
+        <v>0.1272419048668993</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.397132788313399</v>
+        <v>1.363664709184462</v>
       </c>
       <c r="H4">
-        <v>0.8853409364958225</v>
+        <v>1.241537666044167</v>
       </c>
       <c r="I4">
-        <v>0.9071719998430936</v>
+        <v>1.077912021176815</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.727436234261603</v>
+        <v>0.2788943508040092</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4693222318530204</v>
+        <v>0.2094705641491146</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5476725787279406</v>
+        <v>0.2228253649037129</v>
       </c>
       <c r="C5">
-        <v>0.1589003984306174</v>
+        <v>0.05575366887325117</v>
       </c>
       <c r="D5">
-        <v>0.1468266600081591</v>
+        <v>0.06466030455662519</v>
       </c>
       <c r="E5">
-        <v>0.2437104183295062</v>
+        <v>0.1245231929367989</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.365760436126493</v>
+        <v>1.355992870654617</v>
       </c>
       <c r="H5">
-        <v>0.8725027264845977</v>
+        <v>1.23915804690418</v>
       </c>
       <c r="I5">
-        <v>0.8928597262385978</v>
+        <v>1.07469411306942</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6962075199197528</v>
+        <v>0.2706609335363197</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4491579684600779</v>
+        <v>0.2042016281893382</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5436201853349303</v>
+        <v>0.2217687177334255</v>
       </c>
       <c r="C6">
-        <v>0.1577040176809987</v>
+        <v>0.05542925992720882</v>
       </c>
       <c r="D6">
-        <v>0.1457570043138787</v>
+        <v>0.06436707164199618</v>
       </c>
       <c r="E6">
-        <v>0.2419921348685179</v>
+        <v>0.1240730226592461</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.360583746148677</v>
+        <v>1.354728640360278</v>
       </c>
       <c r="H6">
-        <v>0.8703891687057137</v>
+        <v>1.238770005361346</v>
       </c>
       <c r="I6">
-        <v>0.8905021764746976</v>
+        <v>1.074166093755117</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.691030826821688</v>
+        <v>0.2692962339492055</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4458189868273195</v>
+        <v>0.2033287729081223</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.571783512467448</v>
+        <v>0.2291156285444345</v>
       </c>
       <c r="C7">
-        <v>0.1660243348795092</v>
+        <v>0.05768337479177887</v>
       </c>
       <c r="D7">
-        <v>0.1531973172833716</v>
+        <v>0.06640574128350352</v>
       </c>
       <c r="E7">
-        <v>0.253957595585284</v>
+        <v>0.1272051540581245</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.396707467045729</v>
+        <v>1.363560595222623</v>
       </c>
       <c r="H7">
-        <v>0.885166559481803</v>
+        <v>1.241505098085412</v>
       </c>
       <c r="I7">
-        <v>0.9069776894908372</v>
+        <v>1.077868200008211</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7270144636985378</v>
+        <v>0.2787831475264255</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4690496519446725</v>
+        <v>0.2093993679666326</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6970831783020515</v>
+        <v>0.2618483891038466</v>
       </c>
       <c r="C8">
-        <v>0.2031998383409643</v>
+        <v>0.06768952509757753</v>
       </c>
       <c r="D8">
-        <v>0.1864668355941888</v>
+        <v>0.0754843994926091</v>
       </c>
       <c r="E8">
-        <v>0.3078277755870786</v>
+        <v>0.1412131393834457</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.561230136330664</v>
+        <v>1.403944786646463</v>
       </c>
       <c r="H8">
-        <v>0.9531936981135516</v>
+        <v>1.254606818520216</v>
       </c>
       <c r="I8">
-        <v>0.9826291846224464</v>
+        <v>1.095124483637719</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8872906928405371</v>
+        <v>0.3210043125263553</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5730846825211273</v>
+        <v>0.2364874413479967</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9480337436793604</v>
+        <v>0.3271643263728379</v>
       </c>
       <c r="C9">
-        <v>0.2783986115861694</v>
+        <v>0.08753294229271091</v>
       </c>
       <c r="D9">
-        <v>0.2537823847041949</v>
+        <v>0.09358949171075892</v>
       </c>
       <c r="E9">
-        <v>0.418498342693411</v>
+        <v>0.169374300212489</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.906150843756876</v>
+        <v>1.488259540268871</v>
       </c>
       <c r="H9">
-        <v>1.098520322513224</v>
+        <v>1.284026102124074</v>
       </c>
       <c r="I9">
-        <v>1.143568443633882</v>
+        <v>1.132293791603672</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.209151249601632</v>
+        <v>0.4050987536153059</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7844305424291278</v>
+        <v>0.2907096796980611</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.137272115452618</v>
+        <v>0.3758500981325028</v>
       </c>
       <c r="C10">
-        <v>0.3357377742437109</v>
+        <v>0.1022567331665982</v>
       </c>
       <c r="D10">
-        <v>0.3050358636185422</v>
+        <v>0.1070822938558393</v>
       </c>
       <c r="E10">
-        <v>0.5041475658442849</v>
+        <v>0.1905082112568053</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.177286519942612</v>
+        <v>1.553385324618034</v>
       </c>
       <c r="H10">
-        <v>1.214466645953195</v>
+        <v>1.307932319162489</v>
       </c>
       <c r="I10">
-        <v>1.271587154287644</v>
+        <v>1.161659472758245</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.452587452273974</v>
+        <v>0.4676967949066579</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9461627380823359</v>
+        <v>0.331247654771289</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.224835953908951</v>
+        <v>0.3981528974620687</v>
       </c>
       <c r="C11">
-        <v>0.362450731947348</v>
+        <v>0.1089886493913923</v>
       </c>
       <c r="D11">
-        <v>0.3288749421408568</v>
+        <v>0.1132635798590513</v>
       </c>
       <c r="E11">
-        <v>0.5443760318528064</v>
+        <v>0.200223928008036</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.305514968602125</v>
+        <v>1.583716066091966</v>
       </c>
       <c r="H11">
-        <v>1.269682457571776</v>
+        <v>1.319310070260912</v>
       </c>
       <c r="I11">
-        <v>1.332474612346644</v>
+        <v>1.175471585339366</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.565436034513795</v>
+        <v>0.4963562299581099</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.021641226541099</v>
+        <v>0.3498481128838193</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.258245538807586</v>
+        <v>0.406620849029764</v>
       </c>
       <c r="C12">
-        <v>0.3726730420254114</v>
+        <v>0.111542889243367</v>
       </c>
       <c r="D12">
-        <v>0.3379897529465978</v>
+        <v>0.1156106032799187</v>
       </c>
       <c r="E12">
-        <v>0.5598220343649274</v>
+        <v>0.2039180146194184</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.35487120915019</v>
+        <v>1.595303749058445</v>
       </c>
       <c r="H12">
-        <v>1.290991207766496</v>
+        <v>1.323691115232862</v>
       </c>
       <c r="I12">
-        <v>1.355961457494885</v>
+        <v>1.180767510698885</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.608527104165262</v>
+        <v>0.5072354535693648</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.050544026727245</v>
+        <v>0.3569150025379955</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.251038363440188</v>
+        <v>0.4047961290739863</v>
       </c>
       <c r="C13">
-        <v>0.3704664609435326</v>
+        <v>0.1109925632479474</v>
       </c>
       <c r="D13">
-        <v>0.3360226175050371</v>
+        <v>0.1151048482425523</v>
       </c>
       <c r="E13">
-        <v>0.5564854960591816</v>
+        <v>0.2031217567342125</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.344204284377923</v>
+        <v>1.592803581677288</v>
       </c>
       <c r="H13">
-        <v>1.286383450715505</v>
+        <v>1.32274434865684</v>
       </c>
       <c r="I13">
-        <v>1.350883181664415</v>
+        <v>1.179624016012369</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.599229825595842</v>
+        <v>0.5048912360694828</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.044304225508611</v>
+        <v>0.355391979367667</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.227579313684146</v>
+        <v>0.3988491125674898</v>
       </c>
       <c r="C14">
-        <v>0.3632894896440746</v>
+        <v>0.1091986871450672</v>
       </c>
       <c r="D14">
-        <v>0.3296229957947361</v>
+        <v>0.1134565441208366</v>
       </c>
       <c r="E14">
-        <v>0.5456423416259071</v>
+        <v>0.2005275411763066</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.309558936836595</v>
+        <v>1.584667341380168</v>
       </c>
       <c r="H14">
-        <v>1.271427258809041</v>
+        <v>1.319669046260515</v>
       </c>
       <c r="I14">
-        <v>1.33439797079744</v>
+        <v>1.17590596793849</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.568973658451512</v>
+        <v>0.4972507378237481</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.024012362686776</v>
+        <v>0.3504290411090949</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.213243876583505</v>
+        <v>0.3952093065504982</v>
       </c>
       <c r="C15">
-        <v>0.3589077954597428</v>
+        <v>0.1081005422269641</v>
       </c>
       <c r="D15">
-        <v>0.325714816883746</v>
+        <v>0.1124477334389979</v>
       </c>
       <c r="E15">
-        <v>0.5390292109822923</v>
+        <v>0.1989404663666079</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.288444733978935</v>
+        <v>1.579696976804854</v>
       </c>
       <c r="H15">
-        <v>1.262319614204614</v>
+        <v>1.317794788766776</v>
       </c>
       <c r="I15">
-        <v>1.324357853714019</v>
+        <v>1.173637107141161</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.55048919635172</v>
+        <v>0.4925741703525262</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.011626257035296</v>
+        <v>0.3473921432018088</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.13158255690999</v>
+        <v>0.3743956862980156</v>
       </c>
       <c r="C16">
-        <v>0.3340060244647418</v>
+        <v>0.1018174809291281</v>
       </c>
       <c r="D16">
-        <v>0.3034894723760715</v>
+        <v>0.1066792105784486</v>
       </c>
       <c r="E16">
-        <v>0.5015465287149397</v>
+        <v>0.1898753417721508</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.169012818069689</v>
+        <v>1.551417384061295</v>
       </c>
       <c r="H16">
-        <v>1.210911574142671</v>
+        <v>1.307198893228019</v>
       </c>
       <c r="I16">
-        <v>1.267665421060144</v>
+        <v>1.160765975617466</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.445259488333448</v>
+        <v>0.46582753514096</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9412722615328306</v>
+        <v>0.3300353118825896</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.081890731355116</v>
+        <v>0.3616670178137724</v>
       </c>
       <c r="C17">
-        <v>0.3189017018555376</v>
+        <v>0.09797181795619281</v>
       </c>
       <c r="D17">
-        <v>0.2899973262780406</v>
+        <v>0.1031515607142239</v>
       </c>
       <c r="E17">
-        <v>0.4788968791989845</v>
+        <v>0.1843404786012002</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.0970621842078</v>
+        <v>1.534249795322467</v>
       </c>
       <c r="H17">
-        <v>1.180037436301632</v>
+        <v>1.300827583992543</v>
       </c>
       <c r="I17">
-        <v>1.233598611736795</v>
+        <v>1.152986367534211</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.381281459595698</v>
+        <v>0.4494663953275335</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8986320605713374</v>
+        <v>0.3194285720002412</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.053445923769317</v>
+        <v>0.3543604496476007</v>
       </c>
       <c r="C18">
-        <v>0.3102722334922134</v>
+        <v>0.0957630862573069</v>
       </c>
       <c r="D18">
-        <v>0.2822854862265842</v>
+        <v>0.101126625092391</v>
       </c>
       <c r="E18">
-        <v>0.4659865725085268</v>
+        <v>0.1811665339438804</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.056131782834456</v>
+        <v>1.524441736224048</v>
       </c>
       <c r="H18">
-        <v>1.162509131167781</v>
+        <v>1.297210276090226</v>
       </c>
       <c r="I18">
-        <v>1.21425060104356</v>
+        <v>1.148554408058587</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.34467782616295</v>
+        <v>0.4400731407409921</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8742828289538593</v>
+        <v>0.3133428497120079</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.043837358156736</v>
+        <v>0.3518890826020709</v>
       </c>
       <c r="C19">
-        <v>0.307359963914223</v>
+        <v>0.09501579219175937</v>
       </c>
       <c r="D19">
-        <v>0.2796823663963579</v>
+        <v>0.1004417144345666</v>
       </c>
       <c r="E19">
-        <v>0.4616346228819239</v>
+        <v>0.1800935235086882</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.04234861351074</v>
+        <v>1.521132257324325</v>
       </c>
       <c r="H19">
-        <v>1.156612521556411</v>
+        <v>1.295993634130809</v>
       </c>
       <c r="I19">
-        <v>1.20774059733445</v>
+        <v>1.147061139523927</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.332316359498662</v>
+        <v>0.4368957022994664</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8660675360315082</v>
+        <v>0.3112848930481178</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.087166106062114</v>
+        <v>0.3630204925163696</v>
       </c>
       <c r="C20">
-        <v>0.3205034538936218</v>
+        <v>0.09838086411895119</v>
       </c>
       <c r="D20">
-        <v>0.2914284859993188</v>
+        <v>0.1035266627709461</v>
       </c>
       <c r="E20">
-        <v>0.4812956379664968</v>
+        <v>0.1849286822889624</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.104673832440454</v>
+        <v>1.536070448856691</v>
       </c>
       <c r="H20">
-        <v>1.183299963572154</v>
+        <v>1.301500923477704</v>
       </c>
       <c r="I20">
-        <v>1.237199251506169</v>
+        <v>1.153810101764549</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.388071488380689</v>
+        <v>0.4512062811251951</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9031526164314414</v>
+        <v>0.3205561231625396</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.234462664172213</v>
+        <v>0.4005952883003943</v>
       </c>
       <c r="C21">
-        <v>0.3653945058432839</v>
+        <v>0.1097254551139315</v>
       </c>
       <c r="D21">
-        <v>0.3315002425340623</v>
+        <v>0.1139405193156193</v>
       </c>
       <c r="E21">
-        <v>0.5488212165068518</v>
+        <v>0.2012891167366533</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.319712614755616</v>
+        <v>1.587054375664763</v>
       </c>
       <c r="H21">
-        <v>1.275809028847846</v>
+        <v>1.320570366458725</v>
       </c>
       <c r="I21">
-        <v>1.33922798853115</v>
+        <v>1.176996266112141</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.577850453526509</v>
+        <v>0.4994942163564247</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.029963471182704</v>
+        <v>0.3518861411398646</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.332213814983589</v>
+        <v>0.4252829652259891</v>
       </c>
       <c r="C22">
-        <v>0.3953642164314601</v>
+        <v>0.117169056628768</v>
       </c>
       <c r="D22">
-        <v>0.3582058939030617</v>
+        <v>0.1207833582590894</v>
       </c>
       <c r="E22">
-        <v>0.5942075936221443</v>
+        <v>0.2120689281097654</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.46496201274951</v>
+        <v>1.620970727830894</v>
       </c>
       <c r="H22">
-        <v>1.338623153064219</v>
+        <v>1.333456272576655</v>
       </c>
       <c r="I22">
-        <v>1.408443187970065</v>
+        <v>1.192532173928271</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.703997115002863</v>
+        <v>0.5312078182370783</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.114736864631929</v>
+        <v>0.3724980984433515</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.279892539334043</v>
+        <v>0.4120947503180901</v>
       </c>
       <c r="C23">
-        <v>0.3793052354235442</v>
+        <v>0.1131935489414388</v>
       </c>
       <c r="D23">
-        <v>0.3439009651755924</v>
+        <v>0.1171278168573622</v>
       </c>
       <c r="E23">
-        <v>0.5698582751251067</v>
+        <v>0.2063074442938131</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.386974214819958</v>
+        <v>1.602814201887838</v>
       </c>
       <c r="H23">
-        <v>1.30486670981216</v>
+        <v>1.326540040929927</v>
       </c>
       <c r="I23">
-        <v>1.371252345098412</v>
+        <v>1.184205256691556</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.636457078239005</v>
+        <v>0.5142674664892581</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.069301432792123</v>
+        <v>0.3614845467953671</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.084780726762062</v>
+        <v>0.3624085513684463</v>
       </c>
       <c r="C24">
-        <v>0.3197791341550271</v>
+        <v>0.09819592753459006</v>
       </c>
       <c r="D24">
-        <v>0.2907813195078432</v>
+        <v>0.1033570693048489</v>
       </c>
       <c r="E24">
-        <v>0.4802108147626782</v>
+        <v>0.1846627301326009</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.10123125855236</v>
+        <v>1.535247138888877</v>
       </c>
       <c r="H24">
-        <v>1.181824287901662</v>
+        <v>1.301196364523662</v>
       </c>
       <c r="I24">
-        <v>1.23557066628436</v>
+        <v>1.153437564941314</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.385001165403793</v>
+        <v>0.4504196383338979</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9011083620651874</v>
+        <v>0.320046319209851</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8794211129006726</v>
+        <v>0.3093728478358457</v>
       </c>
       <c r="C25">
-        <v>0.2577422936995362</v>
+        <v>0.08214005672331837</v>
       </c>
       <c r="D25">
-        <v>0.2352976623439531</v>
+        <v>0.08865854986626687</v>
       </c>
       <c r="E25">
-        <v>0.3878968892348098</v>
+        <v>0.1616796273430907</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.810051078921759</v>
+        <v>1.464895941172131</v>
       </c>
       <c r="H25">
-        <v>1.057743178558809</v>
+        <v>1.275666375436458</v>
       </c>
       <c r="I25">
-        <v>1.098477382998951</v>
+        <v>1.121879199661748</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.121040466497249</v>
+        <v>0.3822076719683025</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7262776850778039</v>
+        <v>0.2759201326024794</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_58/res_line/pl_mw.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2707932045371706</v>
+        <v>0.7313309544803133</v>
       </c>
       <c r="C2">
-        <v>0.07041530944768226</v>
+        <v>0.2134047736190325</v>
       </c>
       <c r="D2">
-        <v>0.07796443285583621</v>
+        <v>0.1956034694856896</v>
       </c>
       <c r="E2">
-        <v>0.1450545770784402</v>
+        <v>0.3227215922222939</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.415231341819094</v>
+        <v>1.607176098307576</v>
       </c>
       <c r="H2">
-        <v>1.258408207658192</v>
+        <v>0.9723681734680838</v>
       </c>
       <c r="I2">
-        <v>1.100024396642105</v>
+        <v>1.003907433533783</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3325312292098772</v>
+        <v>0.9311493281464038</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2439005126269436</v>
+        <v>0.6017022686950284</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2449364021153713</v>
+        <v>0.6323592675971383</v>
       </c>
       <c r="C3">
-        <v>0.06252644056040424</v>
+        <v>0.1839648800452096</v>
       </c>
       <c r="D3">
-        <v>0.07079448176847336</v>
+        <v>0.1692488702908435</v>
       </c>
       <c r="E3">
-        <v>0.1339653914798689</v>
+        <v>0.2798754810590793</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.382884738630935</v>
+        <v>1.475507987779309</v>
       </c>
       <c r="H3">
-        <v>1.247665512840967</v>
+        <v>0.9176139256574913</v>
       </c>
       <c r="I3">
-        <v>1.086065402385685</v>
+        <v>0.9430968296979643</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2991984774104708</v>
+        <v>0.8044625892263468</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2224837851026891</v>
+        <v>0.5192105120401322</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.229201767033004</v>
+        <v>0.5721135480374357</v>
       </c>
       <c r="C4">
-        <v>0.05770978266350824</v>
+        <v>0.1661219163293737</v>
       </c>
       <c r="D4">
-        <v>0.06642964103181725</v>
+        <v>0.1532845951372082</v>
       </c>
       <c r="E4">
-        <v>0.1272419048668993</v>
+        <v>0.2540981397201918</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.363664709184462</v>
+        <v>1.397132788313371</v>
       </c>
       <c r="H4">
-        <v>1.241537666044167</v>
+        <v>0.8853409364958225</v>
       </c>
       <c r="I4">
-        <v>1.077912021176815</v>
+        <v>0.9071719998430865</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2788943508040092</v>
+        <v>0.7274362342616456</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2094705641491146</v>
+        <v>0.4693222318530275</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2228253649037129</v>
+        <v>0.5476725787278838</v>
       </c>
       <c r="C5">
-        <v>0.05575366887325117</v>
+        <v>0.1589003984306174</v>
       </c>
       <c r="D5">
-        <v>0.06466030455662519</v>
+        <v>0.1468266600085428</v>
       </c>
       <c r="E5">
-        <v>0.1245231929367989</v>
+        <v>0.2437104183294707</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.355992870654617</v>
+        <v>1.365760436126408</v>
       </c>
       <c r="H5">
-        <v>1.23915804690418</v>
+        <v>0.8725027264844698</v>
       </c>
       <c r="I5">
-        <v>1.07469411306942</v>
+        <v>0.8928597262385836</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2706609335363197</v>
+        <v>0.6962075199197244</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2042016281893382</v>
+        <v>0.449157968460085</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2217687177334255</v>
+        <v>0.5436201853347313</v>
       </c>
       <c r="C6">
-        <v>0.05542925992720882</v>
+        <v>0.1577040176808566</v>
       </c>
       <c r="D6">
-        <v>0.06436707164199618</v>
+        <v>0.1457570043137792</v>
       </c>
       <c r="E6">
-        <v>0.1240730226592461</v>
+        <v>0.241992134868525</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.354728640360278</v>
+        <v>1.360583746148691</v>
       </c>
       <c r="H6">
-        <v>1.238770005361346</v>
+        <v>0.8703891687058274</v>
       </c>
       <c r="I6">
-        <v>1.074166093755117</v>
+        <v>0.8905021764746905</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2692962339492055</v>
+        <v>0.6910308268217449</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2033287729081223</v>
+        <v>0.4458189868273266</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2291156285444345</v>
+        <v>0.5717835124672774</v>
       </c>
       <c r="C7">
-        <v>0.05768337479177887</v>
+        <v>0.1660243348795092</v>
       </c>
       <c r="D7">
-        <v>0.06640574128350352</v>
+        <v>0.1531973172834569</v>
       </c>
       <c r="E7">
-        <v>0.1272051540581245</v>
+        <v>0.2539575955852911</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.363560595222623</v>
+        <v>1.396707467045758</v>
       </c>
       <c r="H7">
-        <v>1.241505098085412</v>
+        <v>0.8851665594819167</v>
       </c>
       <c r="I7">
-        <v>1.077868200008211</v>
+        <v>0.9069776894908443</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2787831475264255</v>
+        <v>0.7270144636985236</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2093993679666326</v>
+        <v>0.4690496519446583</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2618483891038466</v>
+        <v>0.6970831783020515</v>
       </c>
       <c r="C8">
-        <v>0.06768952509757753</v>
+        <v>0.2031998383409501</v>
       </c>
       <c r="D8">
-        <v>0.0754843994926091</v>
+        <v>0.1864668355944161</v>
       </c>
       <c r="E8">
-        <v>0.1412131393834457</v>
+        <v>0.3078277755870644</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.403944786646463</v>
+        <v>1.561230136330607</v>
       </c>
       <c r="H8">
-        <v>1.254606818520216</v>
+        <v>0.9531936981136653</v>
       </c>
       <c r="I8">
-        <v>1.095124483637719</v>
+        <v>0.9826291846224606</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3210043125263553</v>
+        <v>0.8872906928406223</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2364874413479967</v>
+        <v>0.5730846825211273</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3271643263728379</v>
+        <v>0.9480337436792752</v>
       </c>
       <c r="C9">
-        <v>0.08753294229271091</v>
+        <v>0.278398611585942</v>
       </c>
       <c r="D9">
-        <v>0.09358949171075892</v>
+        <v>0.2537823847039391</v>
       </c>
       <c r="E9">
-        <v>0.169374300212489</v>
+        <v>0.4184983426934323</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.488259540268871</v>
+        <v>1.906150843756933</v>
       </c>
       <c r="H9">
-        <v>1.284026102124074</v>
+        <v>1.098520322513195</v>
       </c>
       <c r="I9">
-        <v>1.132293791603672</v>
+        <v>1.143568443633868</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4050987536153059</v>
+        <v>1.209151249601604</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2907096796980611</v>
+        <v>0.7844305424291136</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.3758500981325028</v>
+        <v>1.137272115452589</v>
       </c>
       <c r="C10">
-        <v>0.1022567331665982</v>
+        <v>0.3357377742439951</v>
       </c>
       <c r="D10">
-        <v>0.1070822938558393</v>
+        <v>0.3050358636186701</v>
       </c>
       <c r="E10">
-        <v>0.1905082112568053</v>
+        <v>0.5041475658442565</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1.553385324618034</v>
+        <v>2.177286519942555</v>
       </c>
       <c r="H10">
-        <v>1.307932319162489</v>
+        <v>1.214466645953223</v>
       </c>
       <c r="I10">
-        <v>1.161659472758245</v>
+        <v>1.271587154287644</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4676967949066579</v>
+        <v>1.452587452273974</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.331247654771289</v>
+        <v>0.9461627380823359</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3981528974620687</v>
+        <v>1.224835953908837</v>
       </c>
       <c r="C11">
-        <v>0.1089886493913923</v>
+        <v>0.3624507319475185</v>
       </c>
       <c r="D11">
-        <v>0.1132635798590513</v>
+        <v>0.3288749421408426</v>
       </c>
       <c r="E11">
-        <v>0.200223928008036</v>
+        <v>0.5443760318527993</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1.583716066091966</v>
+        <v>2.305514968602154</v>
       </c>
       <c r="H11">
-        <v>1.319310070260912</v>
+        <v>1.269682457571776</v>
       </c>
       <c r="I11">
-        <v>1.175471585339366</v>
+        <v>1.332474612346658</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4963562299581099</v>
+        <v>1.565436034513851</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3498481128838193</v>
+        <v>1.021641226541078</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.406620849029764</v>
+        <v>1.258245538807472</v>
       </c>
       <c r="C12">
-        <v>0.111542889243367</v>
+        <v>0.3726730420249851</v>
       </c>
       <c r="D12">
-        <v>0.1156106032799187</v>
+        <v>0.337989752946342</v>
       </c>
       <c r="E12">
-        <v>0.2039180146194184</v>
+        <v>0.5598220343649274</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.595303749058445</v>
+        <v>2.354871209150048</v>
       </c>
       <c r="H12">
-        <v>1.323691115232862</v>
+        <v>1.290991207766609</v>
       </c>
       <c r="I12">
-        <v>1.180767510698885</v>
+        <v>1.355961457494885</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.5072354535693648</v>
+        <v>1.608527104165205</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3569150025379955</v>
+        <v>1.050544026727231</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4047961290739863</v>
+        <v>1.251038363440358</v>
       </c>
       <c r="C13">
-        <v>0.1109925632479474</v>
+        <v>0.370466460943959</v>
       </c>
       <c r="D13">
-        <v>0.1151048482425523</v>
+        <v>0.3360226175049092</v>
       </c>
       <c r="E13">
-        <v>0.2031217567342125</v>
+        <v>0.5564854960591816</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.592803581677288</v>
+        <v>2.344204284377781</v>
       </c>
       <c r="H13">
-        <v>1.32274434865684</v>
+        <v>1.286383450715505</v>
       </c>
       <c r="I13">
-        <v>1.179624016012369</v>
+        <v>1.3508831816644</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.5048912360694828</v>
+        <v>1.599229825595756</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.355391979367667</v>
+        <v>1.044304225508633</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.3988491125674898</v>
+        <v>1.227579313684373</v>
       </c>
       <c r="C14">
-        <v>0.1091986871450672</v>
+        <v>0.3632894896443304</v>
       </c>
       <c r="D14">
-        <v>0.1134565441208366</v>
+        <v>0.3296229957948498</v>
       </c>
       <c r="E14">
-        <v>0.2005275411763066</v>
+        <v>0.5456423416258573</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.584667341380168</v>
+        <v>2.309558936836538</v>
       </c>
       <c r="H14">
-        <v>1.319669046260515</v>
+        <v>1.271427258809069</v>
       </c>
       <c r="I14">
-        <v>1.17590596793849</v>
+        <v>1.334397970797454</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4972507378237481</v>
+        <v>1.56897365845154</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3504290411090949</v>
+        <v>1.024012362686776</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3952093065504982</v>
+        <v>1.213243876583505</v>
       </c>
       <c r="C15">
-        <v>0.1081005422269641</v>
+        <v>0.3589077954599702</v>
       </c>
       <c r="D15">
-        <v>0.1124477334389979</v>
+        <v>0.3257148168840018</v>
       </c>
       <c r="E15">
-        <v>0.1989404663666079</v>
+        <v>0.5390292109822568</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.579696976804854</v>
+        <v>2.288444733979048</v>
       </c>
       <c r="H15">
-        <v>1.317794788766776</v>
+        <v>1.262319614204642</v>
       </c>
       <c r="I15">
-        <v>1.173637107141161</v>
+        <v>1.324357853714048</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4925741703525262</v>
+        <v>1.550489196351691</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3473921432018088</v>
+        <v>1.011626257035267</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3743956862980156</v>
+        <v>1.131582556909876</v>
       </c>
       <c r="C16">
-        <v>0.1018174809291281</v>
+        <v>0.3340060244645713</v>
       </c>
       <c r="D16">
-        <v>0.1066792105784486</v>
+        <v>0.3034894723759436</v>
       </c>
       <c r="E16">
-        <v>0.1898753417721508</v>
+        <v>0.5015465287149183</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.551417384061295</v>
+        <v>2.169012818069632</v>
       </c>
       <c r="H16">
-        <v>1.307198893228019</v>
+        <v>1.210911574142756</v>
       </c>
       <c r="I16">
-        <v>1.160765975617466</v>
+        <v>1.26766542106013</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.46582753514096</v>
+        <v>1.445259488333534</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3300353118825896</v>
+        <v>0.9412722615328519</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3616670178137724</v>
+        <v>1.081890731355287</v>
       </c>
       <c r="C17">
-        <v>0.09797181795619281</v>
+        <v>0.3189017018555376</v>
       </c>
       <c r="D17">
-        <v>0.1031515607142239</v>
+        <v>0.2899973262778275</v>
       </c>
       <c r="E17">
-        <v>0.1843404786012002</v>
+        <v>0.4788968791989987</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.534249795322467</v>
+        <v>2.097062184207829</v>
       </c>
       <c r="H17">
-        <v>1.300827583992543</v>
+        <v>1.180037436301603</v>
       </c>
       <c r="I17">
-        <v>1.152986367534211</v>
+        <v>1.233598611736809</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4494663953275335</v>
+        <v>1.381281459595584</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.3194285720002412</v>
+        <v>0.8986320605713445</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3543604496476007</v>
+        <v>1.053445923769374</v>
       </c>
       <c r="C18">
-        <v>0.0957630862573069</v>
+        <v>0.3102722334920713</v>
       </c>
       <c r="D18">
-        <v>0.101126625092391</v>
+        <v>0.28228548622657</v>
       </c>
       <c r="E18">
-        <v>0.1811665339438804</v>
+        <v>0.4659865725085126</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.524441736224048</v>
+        <v>2.056131782834456</v>
       </c>
       <c r="H18">
-        <v>1.297210276090226</v>
+        <v>1.162509131167781</v>
       </c>
       <c r="I18">
-        <v>1.148554408058587</v>
+        <v>1.21425060104356</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4400731407409921</v>
+        <v>1.344677826162979</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3133428497120079</v>
+        <v>0.8742828289538451</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3518890826020709</v>
+        <v>1.04383735815702</v>
       </c>
       <c r="C19">
-        <v>0.09501579219175937</v>
+        <v>0.3073599639144504</v>
       </c>
       <c r="D19">
-        <v>0.1004417144345666</v>
+        <v>0.2796823663964432</v>
       </c>
       <c r="E19">
-        <v>0.1800935235086882</v>
+        <v>0.4616346228819665</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.521132257324325</v>
+        <v>2.04234861351074</v>
       </c>
       <c r="H19">
-        <v>1.295993634130809</v>
+        <v>1.156612521556298</v>
       </c>
       <c r="I19">
-        <v>1.147061139523927</v>
+        <v>1.20774059733445</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4368957022994664</v>
+        <v>1.332316359498634</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3112848930481178</v>
+        <v>0.8660675360315082</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3630204925163696</v>
+        <v>1.087166106062085</v>
       </c>
       <c r="C20">
-        <v>0.09838086411895119</v>
+        <v>0.320503453893366</v>
       </c>
       <c r="D20">
-        <v>0.1035266627709461</v>
+        <v>0.2914284859994183</v>
       </c>
       <c r="E20">
-        <v>0.1849286822889624</v>
+        <v>0.4812956379664897</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1.536070448856691</v>
+        <v>2.104673832440454</v>
       </c>
       <c r="H20">
-        <v>1.301500923477704</v>
+        <v>1.18329996357204</v>
       </c>
       <c r="I20">
-        <v>1.153810101764549</v>
+        <v>1.237199251506169</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4512062811251951</v>
+        <v>1.388071488380632</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.3205561231625396</v>
+        <v>0.9031526164314414</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4005952883003943</v>
+        <v>1.23446266417227</v>
       </c>
       <c r="C21">
-        <v>0.1097254551139315</v>
+        <v>0.3653945058433123</v>
       </c>
       <c r="D21">
-        <v>0.1139405193156193</v>
+        <v>0.331500242534176</v>
       </c>
       <c r="E21">
-        <v>0.2012891167366533</v>
+        <v>0.5488212165068731</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>1.587054375664763</v>
+        <v>2.319712614755701</v>
       </c>
       <c r="H21">
-        <v>1.320570366458725</v>
+        <v>1.275809028847959</v>
       </c>
       <c r="I21">
-        <v>1.176996266112141</v>
+        <v>1.33922798853115</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4994942163564247</v>
+        <v>1.577850453526509</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.3518861411398646</v>
+        <v>1.029963471182718</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4252829652259891</v>
+        <v>1.332213814983504</v>
       </c>
       <c r="C22">
-        <v>0.117169056628768</v>
+        <v>0.3953642164314033</v>
       </c>
       <c r="D22">
-        <v>0.1207833582590894</v>
+        <v>0.3582058939029338</v>
       </c>
       <c r="E22">
-        <v>0.2120689281097654</v>
+        <v>0.5942075936221727</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>1.620970727830894</v>
+        <v>2.464962012749538</v>
       </c>
       <c r="H22">
-        <v>1.333456272576655</v>
+        <v>1.338623153064219</v>
       </c>
       <c r="I22">
-        <v>1.192532173928271</v>
+        <v>1.408443187970065</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5312078182370783</v>
+        <v>1.703997115002778</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3724980984433515</v>
+        <v>1.114736864631929</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4120947503180901</v>
+        <v>1.279892539333929</v>
       </c>
       <c r="C23">
-        <v>0.1131935489414388</v>
+        <v>0.3793052354235158</v>
       </c>
       <c r="D23">
-        <v>0.1171278168573622</v>
+        <v>0.3439009651755924</v>
       </c>
       <c r="E23">
-        <v>0.2063074442938131</v>
+        <v>0.569858275125064</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1.602814201887838</v>
+        <v>2.386974214819901</v>
       </c>
       <c r="H23">
-        <v>1.326540040929927</v>
+        <v>1.30486670981216</v>
       </c>
       <c r="I23">
-        <v>1.184205256691556</v>
+        <v>1.371252345098412</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5142674664892581</v>
+        <v>1.636457078239005</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3614845467953671</v>
+        <v>1.069301432792123</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3624085513684463</v>
+        <v>1.084780726762148</v>
       </c>
       <c r="C24">
-        <v>0.09819592753459006</v>
+        <v>0.3197791341548566</v>
       </c>
       <c r="D24">
-        <v>0.1033570693048489</v>
+        <v>0.2907813195079427</v>
       </c>
       <c r="E24">
-        <v>0.1846627301326009</v>
+        <v>0.480210814762664</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>1.535247138888877</v>
+        <v>2.101231258552389</v>
       </c>
       <c r="H24">
-        <v>1.301196364523662</v>
+        <v>1.181824287901776</v>
       </c>
       <c r="I24">
-        <v>1.153437564941314</v>
+        <v>1.23557066628436</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4504196383338979</v>
+        <v>1.385001165403793</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.320046319209851</v>
+        <v>0.9011083620652016</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3093728478358457</v>
+        <v>0.8794211129006726</v>
       </c>
       <c r="C25">
-        <v>0.08214005672331837</v>
+        <v>0.2577422936995362</v>
       </c>
       <c r="D25">
-        <v>0.08865854986626687</v>
+        <v>0.2352976623439815</v>
       </c>
       <c r="E25">
-        <v>0.1616796273430907</v>
+        <v>0.3878968892348169</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.464895941172131</v>
+        <v>1.810051078921731</v>
       </c>
       <c r="H25">
-        <v>1.275666375436458</v>
+        <v>1.057743178558809</v>
       </c>
       <c r="I25">
-        <v>1.121879199661748</v>
+        <v>1.098477382998908</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3822076719683025</v>
+        <v>1.121040466497107</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2759201326024794</v>
+        <v>0.7262776850777897</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7313309544803133</v>
+        <v>3.524770682388748</v>
       </c>
       <c r="C2">
-        <v>0.2134047736190325</v>
+        <v>1.420381903144062</v>
       </c>
       <c r="D2">
-        <v>0.1956034694856896</v>
+        <v>0.2032327664134073</v>
       </c>
       <c r="E2">
-        <v>0.3227215922222939</v>
+        <v>1.379666305489636</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.607176098307576</v>
+        <v>1.584752105823043</v>
       </c>
       <c r="H2">
-        <v>0.9723681734680838</v>
+        <v>0.01405280564527012</v>
       </c>
       <c r="I2">
-        <v>1.003907433533783</v>
+        <v>0.0100272641613488</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.897810054644907</v>
       </c>
       <c r="K2">
-        <v>0.9311493281464038</v>
+        <v>0.6548711472019164</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6017022686950284</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +468,52 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.6260326665188491</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6323592675971383</v>
+        <v>3.059926612689765</v>
       </c>
       <c r="C3">
-        <v>0.1839648800452096</v>
+        <v>1.230813872157341</v>
       </c>
       <c r="D3">
-        <v>0.1692488702908435</v>
+        <v>0.1758731324220264</v>
       </c>
       <c r="E3">
-        <v>0.2798754810590793</v>
+        <v>1.195835062722651</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.475507987779309</v>
+        <v>1.406266416519202</v>
       </c>
       <c r="H3">
-        <v>0.9176139256574913</v>
+        <v>0.009599290319254945</v>
       </c>
       <c r="I3">
-        <v>0.9430968296979643</v>
+        <v>0.006279691917894681</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.818072150585806</v>
       </c>
       <c r="K3">
-        <v>0.8044625892263468</v>
+        <v>0.6044985409916492</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5192105120401322</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +521,52 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.6585414152355427</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5721135480374357</v>
+        <v>2.774748850569893</v>
       </c>
       <c r="C4">
-        <v>0.1661219163293737</v>
+        <v>1.115572711866662</v>
       </c>
       <c r="D4">
-        <v>0.1532845951372082</v>
+        <v>0.1592847630069514</v>
       </c>
       <c r="E4">
-        <v>0.2540981397201918</v>
+        <v>1.083808290363379</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.397132788313371</v>
+        <v>1.297901545787084</v>
       </c>
       <c r="H4">
-        <v>0.8853409364958225</v>
+        <v>0.007219912069384105</v>
       </c>
       <c r="I4">
-        <v>0.9071719998430865</v>
+        <v>0.004410560678597797</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.7697995335851431</v>
       </c>
       <c r="K4">
-        <v>0.7274362342616456</v>
+        <v>0.5739876251960112</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4693222318530275</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +574,52 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.679008278845346</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5476725787278838</v>
+        <v>2.656559567948932</v>
       </c>
       <c r="C5">
-        <v>0.1589003984306174</v>
+        <v>1.06957757344918</v>
       </c>
       <c r="D5">
-        <v>0.1468266600085428</v>
+        <v>0.1525692580058688</v>
       </c>
       <c r="E5">
-        <v>0.2437104183294707</v>
+        <v>1.038299228568221</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.365760436126408</v>
+        <v>1.252368015000002</v>
       </c>
       <c r="H5">
-        <v>0.8725027264844698</v>
+        <v>0.006328884606977447</v>
       </c>
       <c r="I5">
-        <v>0.8928597262385836</v>
+        <v>0.003799202157403592</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.7494557094340735</v>
       </c>
       <c r="K5">
-        <v>0.6962075199197244</v>
+        <v>0.5607079613514756</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.449157968460085</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +627,52 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.6873171285410444</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5436201853347313</v>
+        <v>2.634504170316745</v>
       </c>
       <c r="C6">
-        <v>0.1577040176808566</v>
+        <v>1.062834494611195</v>
       </c>
       <c r="D6">
-        <v>0.1457570043137792</v>
+        <v>0.1514546575494933</v>
       </c>
       <c r="E6">
-        <v>0.241992134868525</v>
+        <v>1.030714049852833</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.360583746148691</v>
+        <v>1.242824422411815</v>
       </c>
       <c r="H6">
-        <v>0.8703891687058274</v>
+        <v>0.006182217557614722</v>
       </c>
       <c r="I6">
-        <v>0.8905021764746905</v>
+        <v>0.00377367746807078</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.7450807533205079</v>
       </c>
       <c r="K6">
-        <v>0.6910308268217449</v>
+        <v>0.557364921477479</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4458189868273266</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +680,52 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.6885205916623625</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5717835124672774</v>
+        <v>2.766489092909183</v>
       </c>
       <c r="C7">
-        <v>0.1660243348795092</v>
+        <v>1.117362646303093</v>
       </c>
       <c r="D7">
-        <v>0.1531973172834569</v>
+        <v>0.1591879958370868</v>
       </c>
       <c r="E7">
-        <v>0.2539575955852911</v>
+        <v>1.083087944098111</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.396707467045758</v>
+        <v>1.291815349732673</v>
       </c>
       <c r="H7">
-        <v>0.8851665594819167</v>
+        <v>0.007197507560134042</v>
       </c>
       <c r="I7">
-        <v>0.9069776894908443</v>
+        <v>0.004576430910599782</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.7667725030374584</v>
       </c>
       <c r="K7">
-        <v>0.7270144636985236</v>
+        <v>0.5706789622497936</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4690496519446583</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +733,52 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.6786317806830049</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6970831783020515</v>
+        <v>3.355455960179654</v>
       </c>
       <c r="C8">
-        <v>0.2031998383409501</v>
+        <v>1.357971099168992</v>
       </c>
       <c r="D8">
-        <v>0.1864668355944161</v>
+        <v>0.1937416607349576</v>
       </c>
       <c r="E8">
-        <v>0.3078277755870644</v>
+        <v>1.315928467568568</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.561230136330607</v>
+        <v>1.515616389629571</v>
       </c>
       <c r="H8">
-        <v>0.9531936981136653</v>
+        <v>0.0124217219781334</v>
       </c>
       <c r="I8">
-        <v>0.9826291846224606</v>
+        <v>0.00883135356074316</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.8664910724749291</v>
       </c>
       <c r="K8">
-        <v>0.8872906928406223</v>
+        <v>0.633235962803667</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5730846825211273</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +786,52 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.6365490974713515</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9480337436792752</v>
+        <v>4.52707993405636</v>
       </c>
       <c r="C9">
-        <v>0.278398611585942</v>
+        <v>1.836690571507972</v>
       </c>
       <c r="D9">
-        <v>0.2537823847039391</v>
+        <v>0.2635210024944996</v>
       </c>
       <c r="E9">
-        <v>0.4184983426934323</v>
+        <v>1.781364843030303</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.906150843756933</v>
+        <v>1.976564736770939</v>
       </c>
       <c r="H9">
-        <v>1.098520322513195</v>
+        <v>0.02589031695961763</v>
       </c>
       <c r="I9">
-        <v>1.143568443633868</v>
+        <v>0.0208437945165576</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1.073597856997111</v>
       </c>
       <c r="K9">
-        <v>1.209151249601604</v>
+        <v>0.7656841166433566</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7844305424291136</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +839,52 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.5591220328909778</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.137272115452589</v>
+        <v>5.359323427478159</v>
       </c>
       <c r="C10">
-        <v>0.3357377742439951</v>
+        <v>2.178852047534747</v>
       </c>
       <c r="D10">
-        <v>0.3050358636186701</v>
+        <v>0.3163778940216986</v>
       </c>
       <c r="E10">
-        <v>0.5041475658442565</v>
+        <v>2.026398810285059</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.177286519942555</v>
+        <v>2.288543950975054</v>
       </c>
       <c r="H10">
-        <v>1.214466645953223</v>
+        <v>0.03727783526435813</v>
       </c>
       <c r="I10">
-        <v>1.271587154287644</v>
+        <v>0.03239475720655616</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1.212958487945286</v>
       </c>
       <c r="K10">
-        <v>1.452587452273974</v>
+        <v>0.851547688119453</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9461627380823359</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +892,52 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.5046881058989321</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.224835953908837</v>
+        <v>5.450751978202845</v>
       </c>
       <c r="C11">
-        <v>0.3624507319475185</v>
+        <v>2.161338760424201</v>
       </c>
       <c r="D11">
-        <v>0.3288749421408426</v>
+        <v>0.3396740301911763</v>
       </c>
       <c r="E11">
-        <v>0.5443760318527993</v>
+        <v>1.327182549724256</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.305514968602154</v>
+        <v>2.12570062579772</v>
       </c>
       <c r="H11">
-        <v>1.269682457571776</v>
+        <v>0.05223720557583889</v>
       </c>
       <c r="I11">
-        <v>1.332474612346658</v>
+        <v>0.03489638063861022</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1.126693467317835</v>
       </c>
       <c r="K11">
-        <v>1.565436034513851</v>
+        <v>0.771206640299269</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.021641226541078</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +945,52 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.4842350800329989</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.258245538807472</v>
+        <v>5.361712335785171</v>
       </c>
       <c r="C12">
-        <v>0.3726730420249851</v>
+        <v>2.071825111125747</v>
       </c>
       <c r="D12">
-        <v>0.337989752946342</v>
+        <v>0.3480770071142985</v>
       </c>
       <c r="E12">
-        <v>0.5598220343649274</v>
+        <v>0.8198052991986913</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.354871209150048</v>
+        <v>1.937389731145828</v>
       </c>
       <c r="H12">
-        <v>1.290991207766609</v>
+        <v>0.08719956795543737</v>
       </c>
       <c r="I12">
-        <v>1.355961457494885</v>
+        <v>0.03435147206653699</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1.031371613597514</v>
       </c>
       <c r="K12">
-        <v>1.608527104165205</v>
+        <v>0.6933859662167023</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.050544026727231</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +998,52 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.4882822535742974</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.251038363440358</v>
+        <v>5.119300281790458</v>
       </c>
       <c r="C13">
-        <v>0.370466460943959</v>
+        <v>1.926800380103089</v>
       </c>
       <c r="D13">
-        <v>0.3360226175049092</v>
+        <v>0.3453393276036962</v>
       </c>
       <c r="E13">
-        <v>0.5564854960591816</v>
+        <v>0.4319301849780786</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.344204284377781</v>
+        <v>1.711294605593849</v>
       </c>
       <c r="H13">
-        <v>1.286383450715505</v>
+        <v>0.1388843262128745</v>
       </c>
       <c r="I13">
-        <v>1.3508831816644</v>
+        <v>0.03169605220930549</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.9197954723037469</v>
       </c>
       <c r="K13">
-        <v>1.599229825595756</v>
+        <v>0.6084285544213088</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.044304225508633</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1051,52 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.5096334819949568</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.227579313684373</v>
+        <v>4.880292523109745</v>
       </c>
       <c r="C14">
-        <v>0.3632894896443304</v>
+        <v>1.802548897405075</v>
       </c>
       <c r="D14">
-        <v>0.3296229957948498</v>
+        <v>0.3384211670390869</v>
       </c>
       <c r="E14">
-        <v>0.5456423416258573</v>
+        <v>0.23373546679003</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.309558936836538</v>
+        <v>1.537386945417524</v>
       </c>
       <c r="H14">
-        <v>1.271427258809069</v>
+        <v>0.1854164637605464</v>
       </c>
       <c r="I14">
-        <v>1.334397970797454</v>
+        <v>0.02908931436328643</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.8349252370365434</v>
       </c>
       <c r="K14">
-        <v>1.56897365845154</v>
+        <v>0.5460510398100951</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.024012362686776</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1104,52 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.5332902357470672</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.213243876583505</v>
+        <v>4.787507188144332</v>
       </c>
       <c r="C15">
-        <v>0.3589077954599702</v>
+        <v>1.761474310219057</v>
       </c>
       <c r="D15">
-        <v>0.3257148168840018</v>
+        <v>0.3343693759286737</v>
       </c>
       <c r="E15">
-        <v>0.5390292109822568</v>
+        <v>0.1942208825517646</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.288444733979048</v>
+        <v>1.484863026123463</v>
       </c>
       <c r="H15">
-        <v>1.262319614204642</v>
+        <v>0.1969606817914524</v>
       </c>
       <c r="I15">
-        <v>1.324357853714048</v>
+        <v>0.02809468998801723</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.8097864883755506</v>
       </c>
       <c r="K15">
-        <v>1.550489196351691</v>
+        <v>0.5281258490309426</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.011626257035267</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1157,52 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.5417380378843148</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.131582556909876</v>
+        <v>4.48266521795972</v>
       </c>
       <c r="C16">
-        <v>0.3340060244645713</v>
+        <v>1.650266408072639</v>
       </c>
       <c r="D16">
-        <v>0.3034894723759436</v>
+        <v>0.3118929032200981</v>
       </c>
       <c r="E16">
-        <v>0.5015465287149183</v>
+        <v>0.1864562488228074</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.169012818069632</v>
+        <v>1.400363780001015</v>
       </c>
       <c r="H16">
-        <v>1.210911574142756</v>
+        <v>0.1807259656364266</v>
       </c>
       <c r="I16">
-        <v>1.26766542106013</v>
+        <v>0.02391344226854297</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.7739426946396009</v>
       </c>
       <c r="K16">
-        <v>1.445259488333534</v>
+        <v>0.5089147802120948</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9412722615328519</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1210,52 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.5579031498701283</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.081890731355287</v>
+        <v>4.374458767162707</v>
       </c>
       <c r="C17">
-        <v>0.3189017018555376</v>
+        <v>1.630136836588122</v>
       </c>
       <c r="D17">
-        <v>0.2899973262778275</v>
+        <v>0.2984160831887692</v>
       </c>
       <c r="E17">
-        <v>0.4788968791989987</v>
+        <v>0.2712149081263249</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.097062184207829</v>
+        <v>1.425998010172691</v>
       </c>
       <c r="H17">
-        <v>1.180037436301603</v>
+        <v>0.1416435754895105</v>
       </c>
       <c r="I17">
-        <v>1.233598611736809</v>
+        <v>0.02207986695605779</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.7907089034730745</v>
       </c>
       <c r="K17">
-        <v>1.381281459595584</v>
+        <v>0.5265414312320047</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8986320605713445</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1263,52 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.5575477425942417</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.053445923769374</v>
+        <v>4.428282638275675</v>
       </c>
       <c r="C18">
-        <v>0.3102722334920713</v>
+        <v>1.685082422346341</v>
       </c>
       <c r="D18">
-        <v>0.28228548622657</v>
+        <v>0.2910174891944877</v>
       </c>
       <c r="E18">
-        <v>0.4659865725085126</v>
+        <v>0.5091464830491788</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.056131782834456</v>
+        <v>1.556731952660812</v>
       </c>
       <c r="H18">
-        <v>1.162509131167781</v>
+        <v>0.08972497333630258</v>
       </c>
       <c r="I18">
-        <v>1.21425060104356</v>
+        <v>0.02176751461168536</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.8580986194027673</v>
       </c>
       <c r="K18">
-        <v>1.344677826162979</v>
+        <v>0.5817394591546403</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8742828289538451</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1316,52 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.5465697859387717</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.04383735815702</v>
+        <v>4.598320115389754</v>
       </c>
       <c r="C19">
-        <v>0.3073599639144504</v>
+        <v>1.804133272742547</v>
       </c>
       <c r="D19">
-        <v>0.2796823663964432</v>
+        <v>0.2890139248754906</v>
       </c>
       <c r="E19">
-        <v>0.4616346228819665</v>
+        <v>0.9526719587359622</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.04234861351074</v>
+        <v>1.761323006204378</v>
       </c>
       <c r="H19">
-        <v>1.156612521556298</v>
+        <v>0.04805765252577743</v>
       </c>
       <c r="I19">
-        <v>1.20774059733445</v>
+        <v>0.02326079455036911</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.9602267108635942</v>
       </c>
       <c r="K19">
-        <v>1.332316359498634</v>
+        <v>0.6616185459727149</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8660675360315082</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1369,52 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.5350177118468658</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.087166106062085</v>
+        <v>5.117175497319636</v>
       </c>
       <c r="C20">
-        <v>0.320503453893366</v>
+        <v>2.095133753953746</v>
       </c>
       <c r="D20">
-        <v>0.2914284859994183</v>
+        <v>0.3023213208340252</v>
       </c>
       <c r="E20">
-        <v>0.4812956379664897</v>
+        <v>1.956798316402484</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.104673832440454</v>
+        <v>2.186850853319299</v>
       </c>
       <c r="H20">
-        <v>1.18329996357204</v>
+        <v>0.03399050025624017</v>
       </c>
       <c r="I20">
-        <v>1.237199251506169</v>
+        <v>0.02957852684923079</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1.166480193283093</v>
       </c>
       <c r="K20">
-        <v>1.388071488380632</v>
+        <v>0.8182445688483355</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9031526164314414</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1422,52 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.5177488340894151</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.23446266417227</v>
+        <v>5.812735960762438</v>
       </c>
       <c r="C21">
-        <v>0.3653945058433123</v>
+        <v>2.392367901934961</v>
       </c>
       <c r="D21">
-        <v>0.331500242534176</v>
+        <v>0.3438043335729759</v>
       </c>
       <c r="E21">
-        <v>0.5488212165068731</v>
+        <v>2.310500893530559</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.319712614755701</v>
+        <v>2.48857025111684</v>
       </c>
       <c r="H21">
-        <v>1.275809028847959</v>
+        <v>0.04529155472037516</v>
       </c>
       <c r="I21">
-        <v>1.33922798853115</v>
+        <v>0.04018102978442162</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1.30407858043003</v>
       </c>
       <c r="K21">
-        <v>1.577850453526509</v>
+        <v>0.908758111166776</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.029963471182718</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1475,52 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.4781668700446682</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.332213814983504</v>
+        <v>6.26312128186521</v>
       </c>
       <c r="C22">
-        <v>0.3953642164314033</v>
+        <v>2.575817613287938</v>
       </c>
       <c r="D22">
-        <v>0.3582058939029338</v>
+        <v>0.3713609591846989</v>
       </c>
       <c r="E22">
-        <v>0.5942075936221727</v>
+        <v>2.491070823852709</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.464962012749538</v>
+        <v>2.678803239064052</v>
       </c>
       <c r="H22">
-        <v>1.338623153064219</v>
+        <v>0.05285321035451052</v>
       </c>
       <c r="I22">
-        <v>1.408443187970065</v>
+        <v>0.04754796199199429</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.390684052106337</v>
       </c>
       <c r="K22">
-        <v>1.703997115002778</v>
+        <v>0.9663394837764798</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.114736864631929</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1528,52 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.4531857569064135</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.279892539333929</v>
+        <v>6.030824461214422</v>
       </c>
       <c r="C23">
-        <v>0.3793052354235158</v>
+        <v>2.474675409559495</v>
       </c>
       <c r="D23">
-        <v>0.3439009651755924</v>
+        <v>0.356619013796589</v>
       </c>
       <c r="E23">
-        <v>0.569858275125064</v>
+        <v>2.394632191672372</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.386974214819901</v>
+        <v>2.583644125487837</v>
       </c>
       <c r="H23">
-        <v>1.30486670981216</v>
+        <v>0.04877990296265899</v>
       </c>
       <c r="I23">
-        <v>1.371252345098412</v>
+        <v>0.04336971160312508</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.347643157234046</v>
       </c>
       <c r="K23">
-        <v>1.636457078239005</v>
+        <v>0.9392881420726411</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.069301432792123</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1581,52 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.4668015528366092</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.084780726762148</v>
+        <v>5.143568392324369</v>
       </c>
       <c r="C24">
-        <v>0.3197791341548566</v>
+        <v>2.102206579086044</v>
       </c>
       <c r="D24">
-        <v>0.2907813195079427</v>
+        <v>0.3017741456479968</v>
       </c>
       <c r="E24">
-        <v>0.480210814762664</v>
+        <v>2.034192370917509</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.101231258552389</v>
+        <v>2.21969137440621</v>
       </c>
       <c r="H24">
-        <v>1.181824287901776</v>
+        <v>0.03465155714998325</v>
       </c>
       <c r="I24">
-        <v>1.23557066628436</v>
+        <v>0.02943868494083457</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.182847561967264</v>
       </c>
       <c r="K24">
-        <v>1.385001165403793</v>
+        <v>0.8332471087454891</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9011083620652016</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,51 +1634,63 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.519334104145811</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.8794211129006726</v>
+        <v>4.196782265098932</v>
       </c>
       <c r="C25">
-        <v>0.2577422936995362</v>
+        <v>1.71011300123871</v>
       </c>
       <c r="D25">
-        <v>0.2352976623439815</v>
+        <v>0.2443626443718045</v>
       </c>
       <c r="E25">
-        <v>0.3878968892348169</v>
+        <v>1.654009118628238</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.810051078921731</v>
+        <v>1.840099999243904</v>
       </c>
       <c r="H25">
-        <v>1.057743178558809</v>
+        <v>0.02181786960534815</v>
       </c>
       <c r="I25">
-        <v>1.098477382998908</v>
+        <v>0.01736833488099876</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>1.011637386946887</v>
       </c>
       <c r="K25">
-        <v>1.121040466497107</v>
+        <v>0.7235514230752145</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7262776850777897</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.5788771258799055</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_4_58/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_58/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.524770682388748</v>
+        <v>3.246033383114934</v>
       </c>
       <c r="C2">
-        <v>1.420381903144062</v>
+        <v>1.511575016254994</v>
       </c>
       <c r="D2">
-        <v>0.2032327664134073</v>
+        <v>0.2026608560761787</v>
       </c>
       <c r="E2">
-        <v>1.379666305489636</v>
+        <v>1.370794915373253</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1.584752105823043</v>
+        <v>1.342072124476942</v>
       </c>
       <c r="H2">
-        <v>0.01405280564527012</v>
+        <v>0.01304512631679855</v>
       </c>
       <c r="I2">
-        <v>0.0100272641613488</v>
+        <v>0.008603566650871031</v>
       </c>
       <c r="J2">
-        <v>0.897810054644907</v>
+        <v>0.8466182554839463</v>
       </c>
       <c r="K2">
-        <v>0.6548711472019164</v>
+        <v>0.5327186227164447</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2674877039828374</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1515331040791743</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,51 +475,57 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.6260326665188491</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.62233573960245</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.059926612689765</v>
+        <v>2.830342272284383</v>
       </c>
       <c r="C3">
-        <v>1.230813872157341</v>
+        <v>1.306894484613679</v>
       </c>
       <c r="D3">
-        <v>0.1758731324220264</v>
+        <v>0.175526250532954</v>
       </c>
       <c r="E3">
-        <v>1.195835062722651</v>
+        <v>1.190066151540137</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>1.406266416519202</v>
+        <v>1.198605854497487</v>
       </c>
       <c r="H3">
-        <v>0.009599290319254945</v>
+        <v>0.009007327622519379</v>
       </c>
       <c r="I3">
-        <v>0.006279691917894681</v>
+        <v>0.005645611416296159</v>
       </c>
       <c r="J3">
-        <v>0.818072150585806</v>
+        <v>0.7803357736061116</v>
       </c>
       <c r="K3">
-        <v>0.6044985409916492</v>
+        <v>0.5000279778276422</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2638565985313122</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1305487734749171</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,51 +534,57 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6585414152355427</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.6502629258410426</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.774748850569893</v>
+        <v>2.574456364579135</v>
       </c>
       <c r="C4">
-        <v>1.115572711866662</v>
+        <v>1.182412471293674</v>
       </c>
       <c r="D4">
-        <v>0.1592847630069514</v>
+        <v>0.1590524630019416</v>
       </c>
       <c r="E4">
-        <v>1.083808290363379</v>
+        <v>1.079747583917296</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1.297901545787084</v>
+        <v>1.111411399175083</v>
       </c>
       <c r="H4">
-        <v>0.007219912069384105</v>
+        <v>0.00683608650537515</v>
       </c>
       <c r="I4">
-        <v>0.004410560678597797</v>
+        <v>0.004146612113226755</v>
       </c>
       <c r="J4">
-        <v>0.7697995335851431</v>
+        <v>0.739660244594404</v>
       </c>
       <c r="K4">
-        <v>0.5739876251960112</v>
+        <v>0.4800770879114182</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2613825478809204</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1185448992634512</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,51 +593,57 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.679008278845346</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.6679889526628955</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.656559567948932</v>
+        <v>2.468162740712955</v>
       </c>
       <c r="C5">
-        <v>1.06957757344918</v>
+        <v>1.132661370534208</v>
       </c>
       <c r="D5">
-        <v>0.1525692580058688</v>
+        <v>0.1523788177819227</v>
       </c>
       <c r="E5">
-        <v>1.038299228568221</v>
+        <v>1.034895733195256</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1.252368015000002</v>
+        <v>1.074617287922791</v>
       </c>
       <c r="H5">
-        <v>0.006328884606977447</v>
+        <v>0.006019686272204283</v>
       </c>
       <c r="I5">
-        <v>0.003799202157403592</v>
+        <v>0.003673997875753621</v>
       </c>
       <c r="J5">
-        <v>0.7494557094340735</v>
+        <v>0.7223282594753186</v>
       </c>
       <c r="K5">
-        <v>0.5607079613514756</v>
+        <v>0.4711716784723379</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2599610354106048</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1136159574940336</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,51 +652,57 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6873171285410444</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.6753525375655904</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.634504170316745</v>
+        <v>2.448269398212915</v>
       </c>
       <c r="C6">
-        <v>1.062834494611195</v>
+        <v>1.125291028185472</v>
       </c>
       <c r="D6">
-        <v>0.1514546575494933</v>
+        <v>0.1512711385388599</v>
       </c>
       <c r="E6">
-        <v>1.030714049852833</v>
+        <v>1.027422168305989</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>1.242824422411815</v>
+        <v>1.066750482729304</v>
       </c>
       <c r="H6">
-        <v>0.006182217557614722</v>
+        <v>0.005885281003784382</v>
       </c>
       <c r="I6">
-        <v>0.00377367746807078</v>
+        <v>0.003688479989942373</v>
       </c>
       <c r="J6">
-        <v>0.7450807533205079</v>
+        <v>0.7185307681023829</v>
       </c>
       <c r="K6">
-        <v>0.557364921477479</v>
+        <v>0.4687217179665453</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2592932693752488</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1125030248373804</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,51 +711,57 @@
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.6885205916623625</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.6765872425341364</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.766489092909183</v>
+        <v>2.564040665581501</v>
       </c>
       <c r="C7">
-        <v>1.117362646303093</v>
+        <v>1.181699606829739</v>
       </c>
       <c r="D7">
-        <v>0.1591879958370868</v>
+        <v>0.1589528427418969</v>
       </c>
       <c r="E7">
-        <v>1.083087944098111</v>
+        <v>1.078977942993376</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.291815349732673</v>
+        <v>1.110659288771387</v>
       </c>
       <c r="H7">
-        <v>0.007197507560134042</v>
+        <v>0.006809375383515337</v>
       </c>
       <c r="I7">
-        <v>0.004576430910599782</v>
+        <v>0.004353526178005218</v>
       </c>
       <c r="J7">
-        <v>0.7667725030374584</v>
+        <v>0.7268712726191495</v>
       </c>
       <c r="K7">
-        <v>0.5706789622497936</v>
+        <v>0.4760728787919746</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2596810751891354</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1172216133507327</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,51 +770,57 @@
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.6786317806830049</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.6681581314941951</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.355455960179654</v>
+        <v>3.085002825860897</v>
       </c>
       <c r="C8">
-        <v>1.357971099168992</v>
+        <v>1.435714260922737</v>
       </c>
       <c r="D8">
-        <v>0.1937416607349576</v>
+        <v>0.1932379011263379</v>
       </c>
       <c r="E8">
-        <v>1.315928467568568</v>
+        <v>1.30794067557342</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1.515616389629571</v>
+        <v>1.301334351226927</v>
       </c>
       <c r="H8">
-        <v>0.0124217219781334</v>
+        <v>0.01154289889315963</v>
       </c>
       <c r="I8">
-        <v>0.00883135356074316</v>
+        <v>0.007728383155621188</v>
       </c>
       <c r="J8">
-        <v>0.8664910724749291</v>
+        <v>0.7871597799048686</v>
       </c>
       <c r="K8">
-        <v>0.633235962803667</v>
+        <v>0.5138423323317554</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2631821617996266</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.141479201916539</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,51 +829,57 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.6365490974713515</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.6322524675947179</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.52707993405636</v>
+        <v>4.124533962327632</v>
       </c>
       <c r="C9">
-        <v>1.836690571507972</v>
+        <v>1.949674256936646</v>
       </c>
       <c r="D9">
-        <v>0.2635210024944996</v>
+        <v>0.2622693428937595</v>
       </c>
       <c r="E9">
-        <v>1.781364843030303</v>
+        <v>1.764100226078682</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1.976564736770939</v>
+        <v>1.676409286163079</v>
       </c>
       <c r="H9">
-        <v>0.02589031695961763</v>
+        <v>0.02362982575101213</v>
       </c>
       <c r="I9">
-        <v>0.0208437945165576</v>
+        <v>0.01690358012732851</v>
       </c>
       <c r="J9">
-        <v>1.073597856997111</v>
+        <v>0.946519005051357</v>
       </c>
       <c r="K9">
-        <v>0.7656841166433566</v>
+        <v>0.5985473114067688</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2720075553088748</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.199522754360018</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,51 +888,57 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.5591220328909778</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.5663036748686832</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.359323427478159</v>
+        <v>4.84194440078079</v>
       </c>
       <c r="C10">
-        <v>2.178852047534747</v>
+        <v>2.30052576648751</v>
       </c>
       <c r="D10">
-        <v>0.3163778940216986</v>
+        <v>0.314340396643118</v>
       </c>
       <c r="E10">
-        <v>2.026398810285059</v>
+        <v>2.001011470690329</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.288543950975054</v>
+        <v>1.956837518008996</v>
       </c>
       <c r="H10">
-        <v>0.03727783526435813</v>
+        <v>0.03365926773014083</v>
       </c>
       <c r="I10">
-        <v>0.03239475720655616</v>
+        <v>0.02552599892037843</v>
       </c>
       <c r="J10">
-        <v>1.212958487945286</v>
+        <v>0.991907862834978</v>
       </c>
       <c r="K10">
-        <v>0.851547688119453</v>
+        <v>0.6440228790942868</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2708467059183235</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.2397779195916669</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,51 +947,57 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5046881058989321</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.52457040029471</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.450751978202845</v>
+        <v>4.90172964712707</v>
       </c>
       <c r="C11">
-        <v>2.161338760424201</v>
+        <v>2.24546631022082</v>
       </c>
       <c r="D11">
-        <v>0.3396740301911763</v>
+        <v>0.337325852787842</v>
       </c>
       <c r="E11">
-        <v>1.327182549724256</v>
+        <v>1.304420735630259</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.12570062579772</v>
+        <v>1.875478516632342</v>
       </c>
       <c r="H11">
-        <v>0.05223720557583889</v>
+        <v>0.04859849147147344</v>
       </c>
       <c r="I11">
-        <v>0.03489638063861022</v>
+        <v>0.02740442414016098</v>
       </c>
       <c r="J11">
-        <v>1.126693467317835</v>
+        <v>0.8060226902117051</v>
       </c>
       <c r="K11">
-        <v>0.771206640299269</v>
+        <v>0.5658929087654343</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2355394872173733</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.217788918605514</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,51 +1006,57 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.4842350800329989</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.5372491880566841</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.361712335785171</v>
+        <v>4.820587098644012</v>
       </c>
       <c r="C12">
-        <v>2.071825111125747</v>
+        <v>2.132723885413213</v>
       </c>
       <c r="D12">
-        <v>0.3480770071142985</v>
+        <v>0.3456713870203458</v>
       </c>
       <c r="E12">
-        <v>0.8198052991986913</v>
+        <v>0.8007174163116417</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1.937389731145828</v>
+        <v>1.740792219731361</v>
       </c>
       <c r="H12">
-        <v>0.08719956795543737</v>
+        <v>0.08379592579079542</v>
       </c>
       <c r="I12">
-        <v>0.03435147206653699</v>
+        <v>0.02694429063653025</v>
       </c>
       <c r="J12">
-        <v>1.031371613597514</v>
+        <v>0.6875569794377441</v>
       </c>
       <c r="K12">
-        <v>0.6933859662167023</v>
+        <v>0.5020725726366564</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2107257523432047</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1947842764537171</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,51 +1065,57 @@
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.4882822535742974</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.5644783473538695</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.119300281790458</v>
+        <v>4.624828228858973</v>
       </c>
       <c r="C13">
-        <v>1.926800380103089</v>
+        <v>1.979439427597015</v>
       </c>
       <c r="D13">
-        <v>0.3453393276036962</v>
+        <v>0.3430950195541982</v>
       </c>
       <c r="E13">
-        <v>0.4319301849780786</v>
+        <v>0.4171159741048598</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1.711294605593849</v>
+        <v>1.541377195521733</v>
       </c>
       <c r="H13">
-        <v>0.1388843262128745</v>
+        <v>0.1359193647428043</v>
       </c>
       <c r="I13">
-        <v>0.03169605220930549</v>
+        <v>0.02504422602486578</v>
       </c>
       <c r="J13">
-        <v>0.9197954723037469</v>
+        <v>0.6202948322209068</v>
       </c>
       <c r="K13">
-        <v>0.6084285544213088</v>
+        <v>0.4431643514023094</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1908912596041148</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1693751773983792</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,51 +1124,57 @@
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5096334819949568</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.5998643450312002</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.880292523109745</v>
+        <v>4.434777593642366</v>
       </c>
       <c r="C14">
-        <v>1.802548897405075</v>
+        <v>1.855243757545054</v>
       </c>
       <c r="D14">
-        <v>0.3384211670390869</v>
+        <v>0.3363784047940186</v>
       </c>
       <c r="E14">
-        <v>0.23373546679003</v>
+        <v>0.2218479835367333</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1.537386945417524</v>
+        <v>1.376015544884893</v>
       </c>
       <c r="H14">
-        <v>0.1854164637605464</v>
+        <v>0.1828165350264896</v>
       </c>
       <c r="I14">
-        <v>0.02908931436328643</v>
+        <v>0.02323046789190997</v>
       </c>
       <c r="J14">
-        <v>0.8349252370365434</v>
+        <v>0.5914997648335714</v>
       </c>
       <c r="K14">
-        <v>0.5460510398100951</v>
+        <v>0.4034557858031533</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1787280376238982</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.150545817926897</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,51 +1183,57 @@
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5332902357470672</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.6280460686815701</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.787507188144332</v>
+        <v>4.361418051427563</v>
       </c>
       <c r="C15">
-        <v>1.761474310219057</v>
+        <v>1.816502742683952</v>
       </c>
       <c r="D15">
-        <v>0.3343693759286737</v>
+        <v>0.3324181971165103</v>
       </c>
       <c r="E15">
-        <v>0.1942208825517646</v>
+        <v>0.1831742838241261</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1.484863026123463</v>
+        <v>1.32202216686153</v>
       </c>
       <c r="H15">
-        <v>0.1969606817914524</v>
+        <v>0.1944979433691856</v>
       </c>
       <c r="I15">
-        <v>0.02809468998801723</v>
+        <v>0.02258437599622987</v>
       </c>
       <c r="J15">
-        <v>0.8097864883755506</v>
+        <v>0.591028092085736</v>
       </c>
       <c r="K15">
-        <v>0.5281258490309426</v>
+        <v>0.3932984632872021</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1761309279613066</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1449864794364153</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,51 +1242,57 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5417380378843148</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.6356756158832297</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.48266521795972</v>
+        <v>4.120867703693705</v>
       </c>
       <c r="C16">
-        <v>1.650266408072639</v>
+        <v>1.723932709980261</v>
       </c>
       <c r="D16">
-        <v>0.3118929032200981</v>
+        <v>0.3103270472002464</v>
       </c>
       <c r="E16">
-        <v>0.1864562488228074</v>
+        <v>0.1771695062712588</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>1.400363780001015</v>
+        <v>1.209073069366468</v>
       </c>
       <c r="H16">
-        <v>0.1807259656364266</v>
+        <v>0.178763102470711</v>
       </c>
       <c r="I16">
-        <v>0.02391344226854297</v>
+        <v>0.01965927348309027</v>
       </c>
       <c r="J16">
-        <v>0.7739426946396009</v>
+        <v>0.650861037961576</v>
       </c>
       <c r="K16">
-        <v>0.5089147802120948</v>
+        <v>0.3931874309680694</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1814425140958456</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1373477161491437</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,51 +1301,57 @@
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.5579031498701283</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.6355100466549715</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.374458767162707</v>
+        <v>4.032037628235287</v>
       </c>
       <c r="C17">
-        <v>1.630136836588122</v>
+        <v>1.714988265100203</v>
       </c>
       <c r="D17">
-        <v>0.2984160831887692</v>
+        <v>0.2970235416370741</v>
       </c>
       <c r="E17">
-        <v>0.2712149081263249</v>
+        <v>0.2619809209438557</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>1.425998010172691</v>
+        <v>1.213398195322924</v>
       </c>
       <c r="H17">
-        <v>0.1416435754895105</v>
+        <v>0.1398697446670667</v>
       </c>
       <c r="I17">
-        <v>0.02207986695605779</v>
+        <v>0.01835475737133763</v>
       </c>
       <c r="J17">
-        <v>0.7907089034730745</v>
+        <v>0.7045220008858166</v>
       </c>
       <c r="K17">
-        <v>0.5265414312320047</v>
+        <v>0.4129349395414579</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1919475445992909</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1406439725757096</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,51 +1360,57 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.5575477425942417</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.6229615669522062</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.428282638275675</v>
+        <v>4.075291174530776</v>
       </c>
       <c r="C18">
-        <v>1.685082422346341</v>
+        <v>1.78160932830508</v>
       </c>
       <c r="D18">
-        <v>0.2910174891944877</v>
+        <v>0.2896665621872785</v>
       </c>
       <c r="E18">
-        <v>0.5091464830491788</v>
+        <v>0.4984305338382455</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>1.556731952660812</v>
+        <v>1.315352011476193</v>
       </c>
       <c r="H18">
-        <v>0.08972497333630258</v>
+        <v>0.08790497500145733</v>
       </c>
       <c r="I18">
-        <v>0.02176751461168536</v>
+        <v>0.01802874828617451</v>
       </c>
       <c r="J18">
-        <v>0.8580986194027673</v>
+        <v>0.7785356378724941</v>
       </c>
       <c r="K18">
-        <v>0.5817394591546403</v>
+        <v>0.4574279616877419</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2102769422103741</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1555516135809114</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,51 +1419,57 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.5465697859387717</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.5991029904182028</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.598320115389754</v>
+        <v>4.21447553347457</v>
       </c>
       <c r="C19">
-        <v>1.804133272742547</v>
+        <v>1.914209874225946</v>
       </c>
       <c r="D19">
-        <v>0.2890139248754906</v>
+        <v>0.2876022025753144</v>
       </c>
       <c r="E19">
-        <v>0.9526719587359622</v>
+        <v>0.9388562771316629</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.761323006204378</v>
+        <v>1.483265968788885</v>
       </c>
       <c r="H19">
-        <v>0.04805765252577743</v>
+        <v>0.04595576067230667</v>
       </c>
       <c r="I19">
-        <v>0.02326079455036911</v>
+        <v>0.01917772178573518</v>
       </c>
       <c r="J19">
-        <v>0.9602267108635942</v>
+        <v>0.8689883935964247</v>
       </c>
       <c r="K19">
-        <v>0.6616185459727149</v>
+        <v>0.5178002781921549</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2332422875271263</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1784564520972367</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,51 +1478,57 @@
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.5350177118468658</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.5736073895265399</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.117175497319636</v>
+        <v>4.64351736292889</v>
       </c>
       <c r="C20">
-        <v>2.095133753953746</v>
+        <v>2.223673626461846</v>
       </c>
       <c r="D20">
-        <v>0.3023213208340252</v>
+        <v>0.3005398113035511</v>
       </c>
       <c r="E20">
-        <v>1.956798316402484</v>
+        <v>1.934077639834328</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.186850853319299</v>
+        <v>1.848958636149774</v>
       </c>
       <c r="H20">
-        <v>0.03399050025624017</v>
+        <v>0.03081497767428099</v>
       </c>
       <c r="I20">
-        <v>0.02957852684923079</v>
+        <v>0.02382906705044086</v>
       </c>
       <c r="J20">
-        <v>1.166480193283093</v>
+        <v>1.007195483668312</v>
       </c>
       <c r="K20">
-        <v>0.8182445688483355</v>
+        <v>0.6277822021776132</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2696500416407801</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.2272644499248244</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,51 +1537,57 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.5177488340894151</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.5357046701607402</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.812735960762438</v>
+        <v>5.181798586613468</v>
       </c>
       <c r="C21">
-        <v>2.392367901934961</v>
+        <v>2.481071861734677</v>
       </c>
       <c r="D21">
-        <v>0.3438043335729759</v>
+        <v>0.3411520410370912</v>
       </c>
       <c r="E21">
-        <v>2.310500893530559</v>
+        <v>2.277804780370261</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.48857025111684</v>
+        <v>2.208680305654525</v>
       </c>
       <c r="H21">
-        <v>0.04529155472037516</v>
+        <v>0.04052563876369231</v>
       </c>
       <c r="I21">
-        <v>0.04018102978442162</v>
+        <v>0.03119433539156091</v>
       </c>
       <c r="J21">
-        <v>1.30407858043003</v>
+        <v>0.8860352891276762</v>
       </c>
       <c r="K21">
-        <v>0.908758111166776</v>
+        <v>0.6575780105688196</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2667761216200475</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.2572804845710905</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,51 +1596,57 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.4781668700446682</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.5056255515532051</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.26312128186521</v>
+        <v>5.523699991655064</v>
       </c>
       <c r="C22">
-        <v>2.575817613287938</v>
+        <v>2.632521738293292</v>
       </c>
       <c r="D22">
-        <v>0.3713609591846989</v>
+        <v>0.3680550055724723</v>
       </c>
       <c r="E22">
-        <v>2.491070823852709</v>
+        <v>2.451560923456995</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.678803239064052</v>
+        <v>2.449931764496796</v>
       </c>
       <c r="H22">
-        <v>0.05285321035451052</v>
+        <v>0.04694388406519501</v>
       </c>
       <c r="I22">
-        <v>0.04754796199199429</v>
+        <v>0.03608676324146476</v>
       </c>
       <c r="J22">
-        <v>1.390684052106337</v>
+        <v>0.7983579135280934</v>
       </c>
       <c r="K22">
-        <v>0.9663394837764798</v>
+        <v>0.673823211347127</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2636703455286948</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.2761666446202469</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,51 +1655,57 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.4531857569064135</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.488379535530207</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.030824461214422</v>
+        <v>5.356728848643002</v>
       </c>
       <c r="C23">
-        <v>2.474675409559495</v>
+        <v>2.555473774570032</v>
       </c>
       <c r="D23">
-        <v>0.356619013796589</v>
+        <v>0.3536866181762832</v>
       </c>
       <c r="E23">
-        <v>2.394632191672372</v>
+        <v>2.359003165860074</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.583644125487837</v>
+        <v>2.313189931786127</v>
       </c>
       <c r="H23">
-        <v>0.04877990296265899</v>
+        <v>0.04352098556145911</v>
       </c>
       <c r="I23">
-        <v>0.04336971160312508</v>
+        <v>0.03323120253863188</v>
       </c>
       <c r="J23">
-        <v>1.347643157234046</v>
+        <v>0.8699948995156603</v>
       </c>
       <c r="K23">
-        <v>0.9392881420726411</v>
+        <v>0.6713211933716536</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2674665781024643</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.2685799828347228</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,51 +1714,57 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.4668015528366092</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.4962411201074168</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.143568392324369</v>
+        <v>4.666114407202372</v>
       </c>
       <c r="C24">
-        <v>2.102206579086044</v>
+        <v>2.232466458242641</v>
       </c>
       <c r="D24">
-        <v>0.3017741456479968</v>
+        <v>0.2999863134962197</v>
       </c>
       <c r="E24">
-        <v>2.034192370917509</v>
+        <v>2.010915669592308</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.21969137440621</v>
+        <v>1.875824936096564</v>
       </c>
       <c r="H24">
-        <v>0.03465155714998325</v>
+        <v>0.0314194273617181</v>
       </c>
       <c r="I24">
-        <v>0.02943868494083457</v>
+        <v>0.02352110147224273</v>
       </c>
       <c r="J24">
-        <v>1.182847561967264</v>
+        <v>1.022887491343823</v>
       </c>
       <c r="K24">
-        <v>0.8332471087454891</v>
+        <v>0.6396791519043532</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2741919156598556</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.2317443284777525</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,51 +1773,57 @@
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.519334104145811</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.5339841169460975</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.196782265098932</v>
+        <v>3.836331446122585</v>
       </c>
       <c r="C25">
-        <v>1.71011300123871</v>
+        <v>1.817164183556713</v>
       </c>
       <c r="D25">
-        <v>0.2443626443718045</v>
+        <v>0.2433559863456765</v>
       </c>
       <c r="E25">
-        <v>1.654009118628238</v>
+        <v>1.639662990657044</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>1.840099999243904</v>
+        <v>1.558130731707024</v>
       </c>
       <c r="H25">
-        <v>0.02181786960534815</v>
+        <v>0.02000777367059858</v>
       </c>
       <c r="I25">
-        <v>0.01736833488099876</v>
+        <v>0.01445814182556049</v>
       </c>
       <c r="J25">
-        <v>1.011637386946887</v>
+        <v>0.9130931265112849</v>
       </c>
       <c r="K25">
-        <v>0.7235514230752145</v>
+        <v>0.5723983284816754</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2686665008843434</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1818480866016259</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,9 +1832,15 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.5788771258799055</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.583831985693088</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
